--- a/worksheet_new_nums.xlsx
+++ b/worksheet_new_nums.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="oldBailey_descStats" sheetId="4" r:id="rId1"/>
-    <sheet name="oldBailey_raw" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="oldBailey_raw_count" sheetId="1" r:id="rId2"/>
+    <sheet name="oldBailey_raw_gender" sheetId="7" r:id="rId3"/>
+    <sheet name="beattie_raw" sheetId="5" r:id="rId4"/>
+    <sheet name="chisquared_tables_count" sheetId="3" r:id="rId5"/>
+    <sheet name="chisquared_tables_gender" sheetId="8" r:id="rId6"/>
+    <sheet name="verdict" sheetId="9" r:id="rId7"/>
+    <sheet name="sentences" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="96">
   <si>
     <t>Year</t>
   </si>
@@ -134,12 +139,183 @@
   <si>
     <t>x2=</t>
   </si>
+  <si>
+    <t>Table 3.1 (Verdicts in Homicide Cases)</t>
+  </si>
+  <si>
+    <t>Table 3.6 (Indictments for Infanticide)</t>
+  </si>
+  <si>
+    <t>Table 3.7 (Indictments for Rape and Attempted Rape)</t>
+  </si>
+  <si>
+    <t>Table 4.1 (Indictments for Crimes Against Property)</t>
+  </si>
+  <si>
+    <t>Robbery</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>Housebreaking</t>
+  </si>
+  <si>
+    <t>Nonclergyable Larceny</t>
+  </si>
+  <si>
+    <t>simple grand Larceny</t>
+  </si>
+  <si>
+    <t>petty larceny</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>https://www.oldbaileyonline.org/static/DoingStatistics.jsp</t>
+  </si>
+  <si>
+    <t>Table 4.5 (Indictments for Burglary and Housebreaking)</t>
+  </si>
+  <si>
+    <t>Table 4.6 (Nonclergyable Larcenies)</t>
+  </si>
+  <si>
+    <t>Table 4.7 (Indictments for Crimes Against Property)</t>
+  </si>
+  <si>
+    <t>Robbery, burglary, housebreaking, horse-theft</t>
+  </si>
+  <si>
+    <t>other nonclergyable larcenies</t>
+  </si>
+  <si>
+    <t>simple grand larceny and petty larceny</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>indeterminate</t>
+  </si>
+  <si>
+    <t>Offence</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>simple grand larceny</t>
+  </si>
+  <si>
+    <t>Table 5.3 (Gender of Accused in Property Offenses)</t>
+  </si>
+  <si>
+    <t>multiple verdicts</t>
+  </si>
+  <si>
+    <t>Guilty</t>
+  </si>
+  <si>
+    <t>Not Guilty</t>
+  </si>
+  <si>
+    <t>Special Verdict</t>
+  </si>
+  <si>
+    <t>Old Bailey</t>
+  </si>
+  <si>
+    <t>Beattie</t>
+  </si>
+  <si>
+    <t>Partial Verdict</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Forgery</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Infanticide</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Rape</t>
+  </si>
+  <si>
+    <t>Attempted Rape</t>
+  </si>
+  <si>
+    <t>Table 8.3 (Trial Verdicts)</t>
+  </si>
+  <si>
+    <t>multiple punishments</t>
+  </si>
+  <si>
+    <t>Corporal</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Imprisonment</t>
+  </si>
+  <si>
+    <t>No Punishment</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Table 9.1 (Capital Punishment in Surrey)</t>
+  </si>
+  <si>
+    <t>Offense</t>
+  </si>
+  <si>
+    <t>Sentenced to death</t>
+  </si>
+  <si>
+    <t>Not Sentenced to death</t>
+  </si>
+  <si>
+    <t>Horse-theft</t>
+  </si>
+  <si>
+    <t>Pickingpockets</t>
+  </si>
+  <si>
+    <t>simple larceny</t>
+  </si>
+  <si>
+    <t>Coining</t>
+  </si>
+  <si>
+    <t>h1: there is an association between being in London and being sentneced to death</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +337,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +370,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -334,11 +541,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,11 +621,51 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -390,7 +678,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
@@ -410,6 +698,44 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -455,6 +781,40 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -466,10 +826,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M239" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M239" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <autoFilter ref="A1:M239"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Year" dataDxfId="1"/>
+    <tableColumn id="1" name="Year" dataDxfId="2"/>
     <tableColumn id="2" name="Total"/>
     <tableColumn id="3" name="multiple offences"/>
     <tableColumn id="4" name="Killing"/>
@@ -482,6 +842,20 @@
     <tableColumn id="11" name="Deception"/>
     <tableColumn id="12" name="Miscellaneous"/>
     <tableColumn id="13" name="Damage to Property"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Offence" dataDxfId="1"/>
+    <tableColumn id="2" name="Total"/>
+    <tableColumn id="3" name="male"/>
+    <tableColumn id="4" name="female"/>
+    <tableColumn id="5" name="indeterminate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1857,7 +2231,7 @@
   <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +2293,7 @@
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1964,7 +2338,7 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2008,7 +2382,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2569,7 +2945,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1689</v>
       </c>
@@ -2609,8 +2985,9 @@
       <c r="M17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1690</v>
       </c>
@@ -2651,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1691</v>
       </c>
@@ -2692,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1692</v>
       </c>
@@ -2733,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1693</v>
       </c>
@@ -2774,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1694</v>
       </c>
@@ -2815,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1695</v>
       </c>
@@ -2856,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1696</v>
       </c>
@@ -2897,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1697</v>
       </c>
@@ -2938,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1698</v>
       </c>
@@ -2979,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1699</v>
       </c>
@@ -3020,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1700</v>
       </c>
@@ -3061,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1702</v>
       </c>
@@ -3102,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1703</v>
       </c>
@@ -3143,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1704</v>
       </c>
@@ -3184,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1706</v>
       </c>
@@ -11722,27 +12099,4737 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>252552</v>
+      </c>
+      <c r="C2" s="1">
+        <v>197946</v>
+      </c>
+      <c r="D2" s="1">
+        <v>54331</v>
+      </c>
+      <c r="E2" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7221</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6110</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1047</v>
+      </c>
+      <c r="E3" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2053</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1797</v>
+      </c>
+      <c r="D4" s="1">
+        <v>254</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8611</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7496</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1105</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1166</v>
+      </c>
+      <c r="C6" s="1">
+        <v>966</v>
+      </c>
+      <c r="D6" s="1">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16012</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14529</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1471</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6103</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4730</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1360</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3860</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2734</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1118</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13837</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10058</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3764</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7536</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6968</v>
+      </c>
+      <c r="D11" s="1">
+        <v>562</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>173541</v>
+      </c>
+      <c r="C12" s="1">
+        <v>131586</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41819</v>
+      </c>
+      <c r="E12" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12612</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10972</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1633</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>334+81</f>
+        <v>415</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>128+36</f>
+        <v>164</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>487</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>463</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="I5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>144</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="I6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <f>191+79+33+27+29+92+73+3+227</f>
+        <v>754</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="I7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3514</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="I8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>855</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="I9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <f>463+149</f>
+        <v>612</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <f>144+117</f>
+        <v>261</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <f>754+207</f>
+        <v>961</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>1321</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>527</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4370</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="33">
+        <f>(531*0.915)+(305*0.866)+(226*0.982)+(90*0.978)</f>
+        <v>1059.9470000000001</v>
+      </c>
+      <c r="D19" s="33">
+        <f>(531*0.085)+(305*0.134)+(226*0.018)+(90*0.022)</f>
+        <v>92.053000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="33">
+        <f>(623*0.859)+(434*0.839)+(189*0.905)+(173*0.873)</f>
+        <v>1221.357</v>
+      </c>
+      <c r="D20" s="33">
+        <f>(623*0.141)+(434*0.161)+(189*0.095)+(173*0.127)</f>
+        <v>197.643</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="33">
+        <f>(204*0.657)+(122*0.598)+(82*0.744)+(100*0.81)</f>
+        <v>348.99200000000002</v>
+      </c>
+      <c r="D21" s="33">
+        <f>(204*0.343)+(122*0.402)+(82*0.256)+(100*0.19)</f>
+        <v>159.00800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="33">
+        <f>(808*0.739)+(515*0.645)+(293*0.904)+(226*0.942)</f>
+        <v>1407.0510000000002</v>
+      </c>
+      <c r="D22" s="33">
+        <f>(808*0.261)+(515*0.355)+(293*0.096)+(226*0.058)</f>
+        <v>434.94899999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="33">
+        <f>(3870*0.744)+(2745*0.707)+(1125*0.835)+(753*0.884)</f>
+        <v>6425.0219999999999</v>
+      </c>
+      <c r="D23" s="33">
+        <f>(3870*0.256)+(2745*0.293)+(1125*0.165)+(753*0.116)</f>
+        <v>2067.9780000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="33">
+        <f>(812*0.713)+(524*0.662)+(288*0.806)+(480*0.806)</f>
+        <v>1544.8519999999999</v>
+      </c>
+      <c r="D24" s="33">
+        <f>(812*0.287)+(524*0.338)+(288*0.194)+(480*0.194)</f>
+        <v>559.14800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="33">
+        <f>(213*0.728)+(172*0.709)+(41*0.805)+(23*0.826)</f>
+        <v>329.01499999999999</v>
+      </c>
+      <c r="D25" s="33">
+        <f>(213*0.272)+(172*0.291)+(41*0.195)+(23*0.174)</f>
+        <v>119.985</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="33">
+        <f>SUM(C19:C25)</f>
+        <v>12336.236000000001</v>
+      </c>
+      <c r="D26" s="33">
+        <f>SUM(D19:D25)</f>
+        <v>3630.7640000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!C1)</f>
+        <v>h1: there is an association between the old bailey and the charge of multiple offences</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="L1" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!D1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Killing</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f>oldBailey_raw_count!C1</f>
+        <v>multiple offences</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>CONCATENATE("not ",B3)</f>
+        <v>not multiple offences</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13" t="str">
+        <f>B3</f>
+        <v>multiple offences</v>
+      </c>
+      <c r="H3" s="13" t="str">
+        <f>C3</f>
+        <v>not multiple offences</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="13" t="str">
+        <f>oldBailey_raw_count!D1</f>
+        <v>Killing</v>
+      </c>
+      <c r="N3" s="13" t="str">
+        <f>CONCATENATE("not ",M3)</f>
+        <v>not Killing</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="13" t="str">
+        <f>M3</f>
+        <v>Killing</v>
+      </c>
+      <c r="S3" s="13" t="str">
+        <f>N3</f>
+        <v>not Killing</v>
+      </c>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!C239)</f>
+        <v>2053</v>
+      </c>
+      <c r="C4" s="16">
+        <f>SUM(oldBailey_raw_count!D2:'oldBailey_raw_count'!M239)</f>
+        <v>250499</v>
+      </c>
+      <c r="D4" s="13">
+        <f>SUM(B4+C4)</f>
+        <v>252552</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="str">
+        <f>A4</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G4" s="14">
+        <f>(D4*B6)/D6</f>
+        <v>2053</v>
+      </c>
+      <c r="H4" s="17">
+        <f>(D4*C6)/D6</f>
+        <v>250499</v>
+      </c>
+      <c r="I4" s="14">
+        <f>SUM(G4:H4)</f>
+        <v>252552</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="16">
+        <f>SUM(oldBailey_raw_count!D2:'oldBailey_raw_count'!D239)</f>
+        <v>6103</v>
+      </c>
+      <c r="N4" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!C239,oldBailey_raw_count!E2:'oldBailey_raw_count'!M239)</f>
+        <v>246449</v>
+      </c>
+      <c r="O4" s="13">
+        <f>SUM(M4+N4)</f>
+        <v>252552</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13" t="str">
+        <f>L4</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R4" s="14">
+        <f>(O4*M6)/O6</f>
+        <v>6400.6168778646534</v>
+      </c>
+      <c r="S4" s="17">
+        <f>(O4*N6)/O6</f>
+        <v>246151.38312213533</v>
+      </c>
+      <c r="T4" s="14">
+        <f>SUM(R4:S4)</f>
+        <v>252552</v>
+      </c>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="13">
+        <f>SUM(B5+C5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="str">
+        <f>A5</f>
+        <v>notOB</v>
+      </c>
+      <c r="G5" s="13">
+        <f>(D5*B6)/D6</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <f>(D5*C6)/D6</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <f>SUM(G5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="18">
+        <f>beattie_raw!A1+beattie_raw!A2</f>
+        <v>477</v>
+      </c>
+      <c r="N5" s="19">
+        <f>beattie_raw!A3+SUM(beattie_raw!A4:A10)</f>
+        <v>6601</v>
+      </c>
+      <c r="O5" s="13">
+        <f>SUM(M5+N5)</f>
+        <v>7078</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="13" t="str">
+        <f>L5</f>
+        <v>notOB</v>
+      </c>
+      <c r="R5" s="13">
+        <f>(O5*M6)/O6</f>
+        <v>179.38312213534647</v>
+      </c>
+      <c r="S5" s="13">
+        <f>(O5*N6)/O6</f>
+        <v>6898.6168778646534</v>
+      </c>
+      <c r="T5" s="13">
+        <f>SUM(R5:S5)</f>
+        <v>7078</v>
+      </c>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
+        <f>(B4+B5)</f>
+        <v>2053</v>
+      </c>
+      <c r="C6" s="13">
+        <f>(C4+C5)</f>
+        <v>250499</v>
+      </c>
+      <c r="D6" s="13">
+        <f>IF(SUM(D4:D5)&lt;&gt;SUM(B6:C6),"PROBLEM",SUM(D4:D5))</f>
+        <v>252552</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <f>SUM(G4:G5)</f>
+        <v>2053</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H4:H5)</f>
+        <v>250499</v>
+      </c>
+      <c r="I6" s="14">
+        <f>SUM(G6:H6)</f>
+        <v>252552</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
+        <f>(M4+M5)</f>
+        <v>6580</v>
+      </c>
+      <c r="N6" s="13">
+        <f>(N4+N5)</f>
+        <v>253050</v>
+      </c>
+      <c r="O6" s="13">
+        <f>IF(SUM(O4:O5)&lt;&gt;SUM(M6:N6),"PROBLEM",SUM(O4:O5))</f>
+        <v>259630</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14">
+        <f>SUM(R4:R5)</f>
+        <v>6580</v>
+      </c>
+      <c r="S6" s="13">
+        <f>SUM(S4:S5)</f>
+        <v>253050</v>
+      </c>
+      <c r="T6" s="14">
+        <f>SUM(R6:S6)</f>
+        <v>259630</v>
+      </c>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <f>B4</f>
+        <v>2053</v>
+      </c>
+      <c r="B10" s="13">
+        <f>G4</f>
+        <v>2053</v>
+      </c>
+      <c r="C10" s="13">
+        <f>A10-B10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <f>C10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <f>D10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="12">
+        <f>M4</f>
+        <v>6103</v>
+      </c>
+      <c r="M10" s="13">
+        <f>R4</f>
+        <v>6400.6168778646534</v>
+      </c>
+      <c r="N10" s="13">
+        <f>L10-M10</f>
+        <v>-297.61687786465336</v>
+      </c>
+      <c r="O10" s="13">
+        <f>N10*N10</f>
+        <v>88575.805989903994</v>
+      </c>
+      <c r="P10" s="14">
+        <f>O10/M10</f>
+        <v>13.838635819029724</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="13">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" ref="C11:C13" si="0">A11-B11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" ref="D11:D13" si="1">C11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="e">
+        <f t="shared" ref="E11:E13" si="2">D11/B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="12">
+        <f>M5</f>
+        <v>477</v>
+      </c>
+      <c r="M11" s="13">
+        <f>R5</f>
+        <v>179.38312213534647</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" ref="N11:N13" si="3">L11-M11</f>
+        <v>297.61687786465353</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" ref="O11:O13" si="4">N11*N11</f>
+        <v>88575.805989904096</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" ref="P11:P13" si="5">O11/M11</f>
+        <v>493.7800442734669</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <f>C4</f>
+        <v>250499</v>
+      </c>
+      <c r="B12" s="13">
+        <f>H4</f>
+        <v>250499</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="12">
+        <f>N4</f>
+        <v>246449</v>
+      </c>
+      <c r="M12" s="13">
+        <f>S4</f>
+        <v>246151.38312213533</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="3"/>
+        <v>297.61687786466791</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="4"/>
+        <v>88575.805989912653</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.35984281244506811</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="12">
+        <f>N5</f>
+        <v>6601</v>
+      </c>
+      <c r="M13" s="13">
+        <f>S5</f>
+        <v>6898.6168778646534</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="3"/>
+        <v>-297.61687786465336</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="4"/>
+        <v>88575.805989903994</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="5"/>
+        <v>12.839647071011298</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U14" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="14" t="e">
+        <f>SUM(E10:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I15" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J15" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="14">
+        <f>SUM(P10:P13)</f>
+        <v>520.81816997595297</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S15" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T15" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U15" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="e">
+        <f>IF(E15&gt;=G15,IF(E15&gt;H15,IF(E15&gt;I15,IF(E15&gt;J15,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J14,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G14,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23" t="str">
+        <f>IF(P15&gt;=R15,IF(P15&gt;S15,IF(P15&gt;T15,IF(P15&gt;U15,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U14,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R14,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!E1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Royal Offences</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!F1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Sexual Offences</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>oldBailey_raw_count!E1</f>
+        <v>Royal Offences</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>CONCATENATE("not ",B21)</f>
+        <v>not Royal Offences</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="13" t="str">
+        <f>B21</f>
+        <v>Royal Offences</v>
+      </c>
+      <c r="H21" s="13" t="str">
+        <f>C21</f>
+        <v>not Royal Offences</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="13" t="str">
+        <f>oldBailey_raw_count!F1</f>
+        <v>Sexual Offences</v>
+      </c>
+      <c r="N21" s="13" t="str">
+        <f>CONCATENATE("not ",M21)</f>
+        <v>not Sexual Offences</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="13" t="str">
+        <f>M21</f>
+        <v>Sexual Offences</v>
+      </c>
+      <c r="S21" s="13" t="str">
+        <f>N21</f>
+        <v>not Sexual Offences</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="16">
+        <f>SUM(oldBailey_raw_count!E2:'oldBailey_raw_count'!E239)</f>
+        <v>13837</v>
+      </c>
+      <c r="C22" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!D239,oldBailey_raw_count!F2:'oldBailey_raw_count'!M239)</f>
+        <v>238715</v>
+      </c>
+      <c r="D22" s="13">
+        <f>SUM(B22+C22)</f>
+        <v>252552</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13" t="str">
+        <f>A22</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G22" s="14">
+        <f>(D22*B24)/D24</f>
+        <v>13837</v>
+      </c>
+      <c r="H22" s="17">
+        <f>(D22*C24)/D24</f>
+        <v>238715</v>
+      </c>
+      <c r="I22" s="14">
+        <f>SUM(G22:H22)</f>
+        <v>252552</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="16">
+        <f>SUM(oldBailey_raw_count!F2:'oldBailey_raw_count'!F239)</f>
+        <v>7536</v>
+      </c>
+      <c r="N22" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!E239,oldBailey_raw_count!G2:'oldBailey_raw_count'!M239)</f>
+        <v>245016</v>
+      </c>
+      <c r="O22" s="13">
+        <f>SUM(M22+N22)</f>
+        <v>252552</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="13" t="str">
+        <f>L22</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R22" s="14">
+        <f>(O22*M24)/O24</f>
+        <v>7490.0835804799135</v>
+      </c>
+      <c r="S22" s="17">
+        <f>(O22*N24)/O24</f>
+        <v>245061.91641952007</v>
+      </c>
+      <c r="T22" s="14">
+        <f>SUM(R22:S22)</f>
+        <v>252552</v>
+      </c>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="13">
+        <f>SUM(B23+C23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13" t="str">
+        <f>A23</f>
+        <v>notOB</v>
+      </c>
+      <c r="G23" s="13">
+        <f>(D23*B24)/D24</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f>(D23*C24)/D24</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <f>SUM(G23:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="18">
+        <f>beattie_raw!A3</f>
+        <v>164</v>
+      </c>
+      <c r="N23" s="19">
+        <f>beattie_raw!A1+beattie_raw!A2+SUM(beattie_raw!A4:A10)</f>
+        <v>6914</v>
+      </c>
+      <c r="O23" s="13">
+        <f>SUM(M23+N23)</f>
+        <v>7078</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13" t="str">
+        <f>L23</f>
+        <v>notOB</v>
+      </c>
+      <c r="R23" s="13">
+        <f>(O23*M24)/O24</f>
+        <v>209.91641952008627</v>
+      </c>
+      <c r="S23" s="13">
+        <f>(O23*N24)/O24</f>
+        <v>6868.0835804799135</v>
+      </c>
+      <c r="T23" s="13">
+        <f>SUM(R23:S23)</f>
+        <v>7078</v>
+      </c>
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <f>(B22+B23)</f>
+        <v>13837</v>
+      </c>
+      <c r="C24" s="13">
+        <f>(C22+C23)</f>
+        <v>238715</v>
+      </c>
+      <c r="D24" s="13">
+        <f>IF(SUM(D22:D23)&lt;&gt;SUM(B24:C24),"PROBLEM",SUM(D22:D23))</f>
+        <v>252552</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <f>SUM(G22:G23)</f>
+        <v>13837</v>
+      </c>
+      <c r="H24" s="13">
+        <f>SUM(H22:H23)</f>
+        <v>238715</v>
+      </c>
+      <c r="I24" s="14">
+        <f>SUM(G24:H24)</f>
+        <v>252552</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13">
+        <f>(M22+M23)</f>
+        <v>7700</v>
+      </c>
+      <c r="N24" s="13">
+        <f>(N22+N23)</f>
+        <v>251930</v>
+      </c>
+      <c r="O24" s="13">
+        <f>IF(SUM(O22:O23)&lt;&gt;SUM(M24:N24),"PROBLEM",SUM(O22:O23))</f>
+        <v>259630</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14">
+        <f>SUM(R22:R23)</f>
+        <v>7700</v>
+      </c>
+      <c r="S24" s="13">
+        <f>SUM(S22:S23)</f>
+        <v>251930</v>
+      </c>
+      <c r="T24" s="14">
+        <f>SUM(R24:S24)</f>
+        <v>259630</v>
+      </c>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f>B22</f>
+        <v>13837</v>
+      </c>
+      <c r="B28" s="13">
+        <f>G22</f>
+        <v>13837</v>
+      </c>
+      <c r="C28" s="13">
+        <f>A28-B28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <f>C28*C28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f>D28/B28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="12">
+        <f>M22</f>
+        <v>7536</v>
+      </c>
+      <c r="M28" s="13">
+        <f>R22</f>
+        <v>7490.0835804799135</v>
+      </c>
+      <c r="N28" s="13">
+        <f>L28-M28</f>
+        <v>45.916419520086492</v>
+      </c>
+      <c r="O28" s="13">
+        <f>N28*N28</f>
+        <v>2108.3175815445798</v>
+      </c>
+      <c r="P28" s="14">
+        <f>O28/M28</f>
+        <v>0.28148118227133229</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f>B23</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="13">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" ref="C29:C31" si="6">A29-B29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" ref="D29:D31" si="7">C29*C29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14" t="e">
+        <f t="shared" ref="E29:E31" si="8">D29/B29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="12">
+        <f>M23</f>
+        <v>164</v>
+      </c>
+      <c r="M29" s="13">
+        <f>R23</f>
+        <v>209.91641952008627</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" ref="N29:N31" si="9">L29-M29</f>
+        <v>-45.916419520086265</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" ref="O29:O31" si="10">N29*N29</f>
+        <v>2108.3175815445588</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" ref="P29:P31" si="11">O29/M29</f>
+        <v>10.043604908870982</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f>C22</f>
+        <v>238715</v>
+      </c>
+      <c r="B30" s="13">
+        <f>H22</f>
+        <v>238715</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="12">
+        <f>N22</f>
+        <v>245016</v>
+      </c>
+      <c r="M30" s="13">
+        <f>S22</f>
+        <v>245061.91641952007</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="9"/>
+        <v>-45.91641952007194</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="10"/>
+        <v>2108.3175815432437</v>
+      </c>
+      <c r="P30" s="14">
+        <f t="shared" si="11"/>
+        <v>8.6032036815301277E-3</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="15"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f>C23</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="13">
+        <f>H23</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="12">
+        <f>N23</f>
+        <v>6914</v>
+      </c>
+      <c r="M31" s="13">
+        <f>S23</f>
+        <v>6868.0835804799135</v>
+      </c>
+      <c r="N31" s="13">
+        <f t="shared" si="9"/>
+        <v>45.916419520086492</v>
+      </c>
+      <c r="O31" s="13">
+        <f t="shared" si="10"/>
+        <v>2108.3175815445798</v>
+      </c>
+      <c r="P31" s="14">
+        <f t="shared" si="11"/>
+        <v>0.30697319810386747</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="15"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T32" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U32" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="14" t="e">
+        <f>SUM(E28:E31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H33" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I33" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J33" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33" s="14">
+        <f>SUM(P28:P31)</f>
+        <v>10.64066249292771</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S33" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T33" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U33" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23" t="e">
+        <f>IF(E33&gt;=G33,IF(E33&gt;H33,IF(E33&gt;I33,IF(E33&gt;J33,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J32,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I32,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H32,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G32,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23" t="str">
+        <f>IF(P33&gt;=R33,IF(P33&gt;S33,IF(P33&gt;T33,IF(P33&gt;U33,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U32,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T32,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S32,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R32,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.99%</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="25"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!G1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Theft</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!H1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Violent Theft</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="11"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>oldBailey_raw_count!G1</f>
+        <v>Theft</v>
+      </c>
+      <c r="C39" s="13" t="str">
+        <f>CONCATENATE("not ",G1)</f>
+        <v xml:space="preserve">not </v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="13" t="str">
+        <f>B39</f>
+        <v>Theft</v>
+      </c>
+      <c r="H39" s="13" t="str">
+        <f>C39</f>
+        <v xml:space="preserve">not </v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="13" t="str">
+        <f>oldBailey_raw_count!H1</f>
+        <v>Violent Theft</v>
+      </c>
+      <c r="N39" s="13" t="str">
+        <f>CONCATENATE("not ",M39)</f>
+        <v>not Violent Theft</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="13" t="str">
+        <f>M39</f>
+        <v>Violent Theft</v>
+      </c>
+      <c r="S39" s="13" t="str">
+        <f>N39</f>
+        <v>not Violent Theft</v>
+      </c>
+      <c r="T39" s="14"/>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="16">
+        <f>SUM(oldBailey_raw_count!G2:'oldBailey_raw_count'!G239)</f>
+        <v>173541</v>
+      </c>
+      <c r="C40" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!F239,oldBailey_raw_count!H2:'oldBailey_raw_count'!M239)</f>
+        <v>79011</v>
+      </c>
+      <c r="D40" s="13">
+        <f>SUM(B40+C40)</f>
+        <v>252552</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13" t="str">
+        <f>A40</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G40" s="14">
+        <f>(D40*B42)/D42</f>
+        <v>175071.4626815083</v>
+      </c>
+      <c r="H40" s="17">
+        <f>(D40*C42)/D42</f>
+        <v>77480.537318491697</v>
+      </c>
+      <c r="I40" s="14">
+        <f>SUM(G40:H40)</f>
+        <v>252552</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="16">
+        <f>SUM(oldBailey_raw_count!H2:'oldBailey_raw_count'!H239)</f>
+        <v>12612</v>
+      </c>
+      <c r="N40" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!G239,oldBailey_raw_count!I2:'oldBailey_raw_count'!M239)</f>
+        <v>239940</v>
+      </c>
+      <c r="O40" s="13">
+        <f>SUM(M40+N40)</f>
+        <v>252552</v>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="13" t="str">
+        <f>L40</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R40" s="14">
+        <f>(O40*M42)/O42</f>
+        <v>12612</v>
+      </c>
+      <c r="S40" s="17">
+        <f>(O40*N42)/O42</f>
+        <v>239940</v>
+      </c>
+      <c r="T40" s="14">
+        <f>SUM(R40:S40)</f>
+        <v>252552</v>
+      </c>
+      <c r="U40" s="15"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="18">
+        <f>SUM(beattie_raw!A4:A10)</f>
+        <v>6437</v>
+      </c>
+      <c r="C41" s="19">
+        <f>beattie_raw!A1+beattie_raw!A2+beattie_raw!A3</f>
+        <v>641</v>
+      </c>
+      <c r="D41" s="13">
+        <f>SUM(B41+C41)</f>
+        <v>7078</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13" t="str">
+        <f>A41</f>
+        <v>notOB</v>
+      </c>
+      <c r="G41" s="13">
+        <f>(D41*B42)/D42</f>
+        <v>4906.5373184916998</v>
+      </c>
+      <c r="H41" s="13">
+        <f>(D41*C42)/D42</f>
+        <v>2171.4626815083002</v>
+      </c>
+      <c r="I41" s="13">
+        <f>SUM(G41:H41)</f>
+        <v>7078</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="13">
+        <f>SUM(M41+N41)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="13" t="str">
+        <f>L41</f>
+        <v>notOB</v>
+      </c>
+      <c r="R41" s="13">
+        <f>(O41*M42)/O42</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="13">
+        <f>(O41*N42)/O42</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="13">
+        <f>SUM(R41:S41)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="15"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13">
+        <f>(B40+B41)</f>
+        <v>179978</v>
+      </c>
+      <c r="C42" s="13">
+        <f>(C40+C41)</f>
+        <v>79652</v>
+      </c>
+      <c r="D42" s="13">
+        <f>IF(SUM(D40:D41)&lt;&gt;SUM(B42:C42),"PROBLEM",SUM(D40:D41))</f>
+        <v>259630</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14">
+        <f>SUM(G40:G41)</f>
+        <v>179978</v>
+      </c>
+      <c r="H42" s="13">
+        <f>SUM(H40:H41)</f>
+        <v>79652</v>
+      </c>
+      <c r="I42" s="14">
+        <f>SUM(G42:H42)</f>
+        <v>259630</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="13">
+        <f>(M40+M41)</f>
+        <v>12612</v>
+      </c>
+      <c r="N42" s="13">
+        <f>(N40+N41)</f>
+        <v>239940</v>
+      </c>
+      <c r="O42" s="13">
+        <f>IF(SUM(O40:O41)&lt;&gt;SUM(M42:N42),"PROBLEM",SUM(O40:O41))</f>
+        <v>252552</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14">
+        <f>SUM(R40:R41)</f>
+        <v>12612</v>
+      </c>
+      <c r="S42" s="13">
+        <f>SUM(S40:S41)</f>
+        <v>239940</v>
+      </c>
+      <c r="T42" s="14">
+        <f>SUM(R42:S42)</f>
+        <v>252552</v>
+      </c>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="15"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="15"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f>B40</f>
+        <v>173541</v>
+      </c>
+      <c r="B46" s="13">
+        <f>G40</f>
+        <v>175071.4626815083</v>
+      </c>
+      <c r="C46" s="13">
+        <f>A46-B46</f>
+        <v>-1530.4626815083029</v>
+      </c>
+      <c r="D46" s="13">
+        <f>C46*C46</f>
+        <v>2342316.019489585</v>
+      </c>
+      <c r="E46" s="14">
+        <f>D46/B46</f>
+        <v>13.379199462968725</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="12">
+        <f>M40</f>
+        <v>12612</v>
+      </c>
+      <c r="M46" s="13">
+        <f>R40</f>
+        <v>12612</v>
+      </c>
+      <c r="N46" s="13">
+        <f>L46-M46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="13">
+        <f>N46*N46</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="14">
+        <f>O46/M46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="15"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f>B41</f>
+        <v>6437</v>
+      </c>
+      <c r="B47" s="13">
+        <f>G41</f>
+        <v>4906.5373184916998</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" ref="C47:C49" si="12">A47-B47</f>
+        <v>1530.4626815083002</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" ref="D47:D49" si="13">C47*C47</f>
+        <v>2342316.0194895766</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" ref="E47:E49" si="14">D47/B47</f>
+        <v>477.38677349133445</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="12">
+        <f>M41</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" ref="N47:N49" si="15">L47-M47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" ref="O47:O49" si="16">N47*N47</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="14" t="e">
+        <f t="shared" ref="P47:P49" si="17">O47/M47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="15"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <f>C40</f>
+        <v>79011</v>
+      </c>
+      <c r="B48" s="13">
+        <f>H40</f>
+        <v>77480.537318491697</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="12"/>
+        <v>1530.4626815083029</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="13"/>
+        <v>2342316.019489585</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="14"/>
+        <v>30.231024468264266</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="12">
+        <f>N40</f>
+        <v>239940</v>
+      </c>
+      <c r="M48" s="13">
+        <f>S40</f>
+        <v>239940</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="15"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <f>C41</f>
+        <v>641</v>
+      </c>
+      <c r="B49" s="13">
+        <f>H41</f>
+        <v>2171.4626815083002</v>
+      </c>
+      <c r="C49" s="13">
+        <f t="shared" si="12"/>
+        <v>-1530.4626815083002</v>
+      </c>
+      <c r="D49" s="13">
+        <f t="shared" si="13"/>
+        <v>2342316.0194895766</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="14"/>
+        <v>1078.6812223098402</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="12">
+        <f>N41</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <f>S41</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="15"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J50" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T50" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U50" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="14">
+        <f>SUM(E46:E49)</f>
+        <v>1599.6782197324078</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H51" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I51" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J51" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="14" t="e">
+        <f>SUM(P46:P49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S51" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T51" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U51" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="15"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23" t="str">
+        <f>IF(E51&gt;=G51,IF(E51&gt;H51,IF(E51&gt;I51,IF(E51&gt;J51,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J50,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I50,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H50,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G50,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23" t="e">
+        <f>IF(P51&gt;=R51,IF(P51&gt;S51,IF(P51&gt;T51,IF(P51&gt;U51,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U50,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T50,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S50,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R50,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="25"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!I1)</f>
+        <v>h1: there is an association between the old bailey and the charge of unknown</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!J1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Breaking Peace</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="11"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="15"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="13" t="str">
+        <f>oldBailey_raw_count!I1</f>
+        <v>unknown</v>
+      </c>
+      <c r="C57" s="13" t="str">
+        <f>CONCATENATE("not ",B57)</f>
+        <v>not unknown</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="13" t="str">
+        <f>B57</f>
+        <v>unknown</v>
+      </c>
+      <c r="H57" s="13" t="str">
+        <f>C57</f>
+        <v>not unknown</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="13" t="str">
+        <f>oldBailey_raw_count!J1</f>
+        <v>Breaking Peace</v>
+      </c>
+      <c r="N57" s="13" t="str">
+        <f>CONCATENATE("not ",M57)</f>
+        <v>not Breaking Peace</v>
+      </c>
+      <c r="O57" s="13"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="13" t="str">
+        <f>M57</f>
+        <v>Breaking Peace</v>
+      </c>
+      <c r="S57" s="13" t="str">
+        <f>N57</f>
+        <v>not Breaking Peace</v>
+      </c>
+      <c r="T57" s="14"/>
+      <c r="U57" s="15"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="16">
+        <f>SUM(oldBailey_raw_count!I2:'oldBailey_raw_count'!I239)</f>
+        <v>7221</v>
+      </c>
+      <c r="C58" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!H239,oldBailey_raw_count!J2:'oldBailey_raw_count'!M239)</f>
+        <v>245331</v>
+      </c>
+      <c r="D58" s="13">
+        <f>SUM(B58+C58)</f>
+        <v>252552</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="13" t="str">
+        <f>A58</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G58" s="14">
+        <f>(D58*B60)/D60</f>
+        <v>7221</v>
+      </c>
+      <c r="H58" s="17">
+        <f>(D58*C60)/D60</f>
+        <v>245331</v>
+      </c>
+      <c r="I58" s="14">
+        <f>SUM(G58:H58)</f>
+        <v>252552</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="16">
+        <f>SUM(oldBailey_raw_count!J2:'oldBailey_raw_count'!J239)</f>
+        <v>8611</v>
+      </c>
+      <c r="N58" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!I239,oldBailey_raw_count!K2:'oldBailey_raw_count'!M239)</f>
+        <v>243941</v>
+      </c>
+      <c r="O58" s="13">
+        <f>SUM(M58+N58)</f>
+        <v>252552</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="13" t="str">
+        <f>L58</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R58" s="14">
+        <f>(O58*M60)/O60</f>
+        <v>8611</v>
+      </c>
+      <c r="S58" s="17">
+        <f>(O58*N60)/O60</f>
+        <v>243941</v>
+      </c>
+      <c r="T58" s="14">
+        <f>SUM(R58:S58)</f>
+        <v>252552</v>
+      </c>
+      <c r="U58" s="15"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="13">
+        <f>SUM(B59+C59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="13" t="str">
+        <f>A59</f>
+        <v>notOB</v>
+      </c>
+      <c r="G59" s="13">
+        <f>(D59*B60)/D60</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <f>(D59*C60)/D60</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <f>SUM(G59:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="13">
+        <f>SUM(M59+N59)</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="13" t="str">
+        <f>L59</f>
+        <v>notOB</v>
+      </c>
+      <c r="R59" s="13">
+        <f>(O59*M60)/O60</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="13">
+        <f>(O59*N60)/O60</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="13">
+        <f>SUM(R59:S59)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="15"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13">
+        <f>(B58+B59)</f>
+        <v>7221</v>
+      </c>
+      <c r="C60" s="13">
+        <f>(C58+C59)</f>
+        <v>245331</v>
+      </c>
+      <c r="D60" s="13">
+        <f>IF(SUM(D58:D59)&lt;&gt;SUM(B60:C60),"PROBLEM",SUM(D58:D59))</f>
+        <v>252552</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14">
+        <f>SUM(G58:G59)</f>
+        <v>7221</v>
+      </c>
+      <c r="H60" s="13">
+        <f>SUM(H58:H59)</f>
+        <v>245331</v>
+      </c>
+      <c r="I60" s="14">
+        <f>SUM(G60:H60)</f>
+        <v>252552</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="13">
+        <f>(M58+M59)</f>
+        <v>8611</v>
+      </c>
+      <c r="N60" s="13">
+        <f>(N58+N59)</f>
+        <v>243941</v>
+      </c>
+      <c r="O60" s="13">
+        <f>IF(SUM(O58:O59)&lt;&gt;SUM(M60:N60),"PROBLEM",SUM(O58:O59))</f>
+        <v>252552</v>
+      </c>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14">
+        <f>SUM(R58:R59)</f>
+        <v>8611</v>
+      </c>
+      <c r="S60" s="13">
+        <f>SUM(S58:S59)</f>
+        <v>243941</v>
+      </c>
+      <c r="T60" s="14">
+        <f>SUM(R60:S60)</f>
+        <v>252552</v>
+      </c>
+      <c r="U60" s="15"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="15"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="15"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="15"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <f>B58</f>
+        <v>7221</v>
+      </c>
+      <c r="B64" s="13">
+        <f>G58</f>
+        <v>7221</v>
+      </c>
+      <c r="C64" s="13">
+        <f>A64-B64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="13">
+        <f>C64*C64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <f>D64/B64</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="12">
+        <f>M58</f>
+        <v>8611</v>
+      </c>
+      <c r="M64" s="13">
+        <f>R58</f>
+        <v>8611</v>
+      </c>
+      <c r="N64" s="13">
+        <f>L64-M64</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="13">
+        <f>N64*N64</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="14">
+        <f>O64/M64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="15"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <f>B59</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="13">
+        <f>G59</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" ref="C65:C67" si="18">A65-B65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" ref="D65:D67" si="19">C65*C65</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="14" t="e">
+        <f t="shared" ref="E65:E67" si="20">D65/B65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="12">
+        <f>M59</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <f>R59</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <f t="shared" ref="N65:N67" si="21">L65-M65</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="13">
+        <f t="shared" ref="O65:O67" si="22">N65*N65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="14" t="e">
+        <f t="shared" ref="P65:P67" si="23">O65/M65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="15"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <f>C58</f>
+        <v>245331</v>
+      </c>
+      <c r="B66" s="13">
+        <f>H58</f>
+        <v>245331</v>
+      </c>
+      <c r="C66" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="12">
+        <f>N58</f>
+        <v>243941</v>
+      </c>
+      <c r="M66" s="13">
+        <f>S58</f>
+        <v>243941</v>
+      </c>
+      <c r="N66" s="13">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="13">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="15"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <f>C59</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="13">
+        <f>H59</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="14" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="12">
+        <f>N59</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="13">
+        <f>S59</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="13">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="13">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="14" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="15"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I68" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J68" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S68" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T68" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U68" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="14" t="e">
+        <f>SUM(E64:E67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H69" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I69" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J69" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P69" s="14" t="e">
+        <f>SUM(P64:P67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S69" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T69" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U69" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="15"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23" t="e">
+        <f>IF(E69&gt;=G69,IF(E69&gt;H69,IF(E69&gt;I69,IF(E69&gt;J69,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J68,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I68,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H68,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G68,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="23" t="e">
+        <f>IF(P69&gt;=R69,IF(P69&gt;S69,IF(P69&gt;T69,IF(P69&gt;U69,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U68,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T68,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S68,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R68,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="25"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!K1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Deception</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!L1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Miscellaneous</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="11"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="15"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="13" t="str">
+        <f>oldBailey_raw_count!K1</f>
+        <v>Deception</v>
+      </c>
+      <c r="C75" s="13" t="str">
+        <f>CONCATENATE("not ",B75)</f>
+        <v>not Deception</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="13" t="str">
+        <f>B75</f>
+        <v>Deception</v>
+      </c>
+      <c r="H75" s="13" t="str">
+        <f>C75</f>
+        <v>not Deception</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" s="13" t="str">
+        <f>oldBailey_raw_count!L1</f>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="N75" s="13" t="str">
+        <f>CONCATENATE("not ",M75)</f>
+        <v>not Miscellaneous</v>
+      </c>
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R75" s="13" t="str">
+        <f>M75</f>
+        <v>Miscellaneous</v>
+      </c>
+      <c r="S75" s="13" t="str">
+        <f>N75</f>
+        <v>not Miscellaneous</v>
+      </c>
+      <c r="T75" s="14"/>
+      <c r="U75" s="15"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="16">
+        <f>SUM(oldBailey_raw_count!K2:'oldBailey_raw_count'!K239)</f>
+        <v>16012</v>
+      </c>
+      <c r="C76" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!J239,oldBailey_raw_count!L2:'oldBailey_raw_count'!M239)</f>
+        <v>236540</v>
+      </c>
+      <c r="D76" s="13">
+        <f>SUM(B76+C76)</f>
+        <v>252552</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="13" t="str">
+        <f>A76</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G76" s="14">
+        <f>(D76*B78)/D78</f>
+        <v>16012</v>
+      </c>
+      <c r="H76" s="17">
+        <f>(D76*C78)/D78</f>
+        <v>236540</v>
+      </c>
+      <c r="I76" s="14">
+        <f>SUM(G76:H76)</f>
+        <v>252552</v>
+      </c>
+      <c r="J76" s="15"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="16">
+        <f>SUM(oldBailey_raw_count!L2:'oldBailey_raw_count'!L239)</f>
+        <v>3860</v>
+      </c>
+      <c r="N76" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!K239,oldBailey_raw_count!M2:'oldBailey_raw_count'!M239)</f>
+        <v>248692</v>
+      </c>
+      <c r="O76" s="13">
+        <f>SUM(M76+N76)</f>
+        <v>252552</v>
+      </c>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="13" t="str">
+        <f>L76</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R76" s="14">
+        <f>(O76*M78)/O78</f>
+        <v>3860</v>
+      </c>
+      <c r="S76" s="17">
+        <f>(O76*N78)/O78</f>
+        <v>248692</v>
+      </c>
+      <c r="T76" s="14">
+        <f>SUM(R76:S76)</f>
+        <v>252552</v>
+      </c>
+      <c r="U76" s="15"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="13">
+        <f>SUM(B77+C77)</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="13" t="str">
+        <f>A77</f>
+        <v>notOB</v>
+      </c>
+      <c r="G77" s="13">
+        <f>(D77*B78)/D78</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="13">
+        <f>(D77*C78)/D78</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
+        <f>SUM(G77:H77)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="15"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="18"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="13">
+        <f>SUM(M77+N77)</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="13" t="str">
+        <f>L77</f>
+        <v>notOB</v>
+      </c>
+      <c r="R77" s="13">
+        <f>(O77*M78)/O78</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="13">
+        <f>(O77*N78)/O78</f>
+        <v>0</v>
+      </c>
+      <c r="T77" s="13">
+        <f>SUM(R77:S77)</f>
+        <v>0</v>
+      </c>
+      <c r="U77" s="15"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13">
+        <f>(B76+B77)</f>
+        <v>16012</v>
+      </c>
+      <c r="C78" s="13">
+        <f>(C76+C77)</f>
+        <v>236540</v>
+      </c>
+      <c r="D78" s="13">
+        <f>IF(SUM(D76:D77)&lt;&gt;SUM(B78:C78),"PROBLEM",SUM(D76:D77))</f>
+        <v>252552</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14">
+        <f>SUM(G76:G77)</f>
+        <v>16012</v>
+      </c>
+      <c r="H78" s="13">
+        <f>SUM(H76:H77)</f>
+        <v>236540</v>
+      </c>
+      <c r="I78" s="14">
+        <f>SUM(G78:H78)</f>
+        <v>252552</v>
+      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="13">
+        <f>(M76+M77)</f>
+        <v>3860</v>
+      </c>
+      <c r="N78" s="13">
+        <f>(N76+N77)</f>
+        <v>248692</v>
+      </c>
+      <c r="O78" s="13">
+        <f>IF(SUM(O76:O77)&lt;&gt;SUM(M78:N78),"PROBLEM",SUM(O76:O77))</f>
+        <v>252552</v>
+      </c>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14">
+        <f>SUM(R76:R77)</f>
+        <v>3860</v>
+      </c>
+      <c r="S78" s="13">
+        <f>SUM(S76:S77)</f>
+        <v>248692</v>
+      </c>
+      <c r="T78" s="14">
+        <f>SUM(R78:S78)</f>
+        <v>252552</v>
+      </c>
+      <c r="U78" s="15"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="15"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="15"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="15"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <f>B76</f>
+        <v>16012</v>
+      </c>
+      <c r="B82" s="13">
+        <f>G76</f>
+        <v>16012</v>
+      </c>
+      <c r="C82" s="13">
+        <f>A82-B82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="13">
+        <f>C82*C82</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <f>D82/B82</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="12">
+        <f>M76</f>
+        <v>3860</v>
+      </c>
+      <c r="M82" s="13">
+        <f>R76</f>
+        <v>3860</v>
+      </c>
+      <c r="N82" s="13">
+        <f>L82-M82</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="13">
+        <f>N82*N82</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="14">
+        <f>O82/M82</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="15"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <f>B77</f>
+        <v>0</v>
+      </c>
+      <c r="B83" s="13">
+        <f>G77</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
+        <f t="shared" ref="C83:C85" si="24">A83-B83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="13">
+        <f t="shared" ref="D83:D85" si="25">C83*C83</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="14" t="e">
+        <f t="shared" ref="E83:E85" si="26">D83/B83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="12">
+        <f>M77</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
+        <f>R77</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="13">
+        <f t="shared" ref="N83:N85" si="27">L83-M83</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="13">
+        <f t="shared" ref="O83:O85" si="28">N83*N83</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="14" t="e">
+        <f t="shared" ref="P83:P85" si="29">O83/M83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="15"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <f>C76</f>
+        <v>236540</v>
+      </c>
+      <c r="B84" s="13">
+        <f>H76</f>
+        <v>236540</v>
+      </c>
+      <c r="C84" s="13">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="13">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="12">
+        <f>N76</f>
+        <v>248692</v>
+      </c>
+      <c r="M84" s="13">
+        <f>S76</f>
+        <v>248692</v>
+      </c>
+      <c r="N84" s="13">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="13">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="15"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <f>C77</f>
+        <v>0</v>
+      </c>
+      <c r="B85" s="13">
+        <f>H77</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="13">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="13">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="14" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="12">
+        <f>N77</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <f>S77</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="13">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="14" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="15"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H86" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I86" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J86" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S86" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T86" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U86" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="14" t="e">
+        <f>SUM(E82:E85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H87" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I87" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J87" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P87" s="14" t="e">
+        <f>SUM(P82:P85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S87" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T87" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U87" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="15"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23" t="e">
+        <f>IF(E87&gt;=G87,IF(E87&gt;H87,IF(E87&gt;I87,IF(E87&gt;J87,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J86,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I86,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H86,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G86,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="23" t="e">
+        <f>IF(P87&gt;=R87,IF(P87&gt;S87,IF(P87&gt;T87,IF(P87&gt;U87,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U86,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T86,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S86,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R86,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="25"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw_count!M1)</f>
+        <v>h1: there is an association between the old bailey and the charge of Damage to Property</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="13" t="str">
+        <f>oldBailey_raw_count!M1</f>
+        <v>Damage to Property</v>
+      </c>
+      <c r="C93" s="13" t="str">
+        <f>CONCATENATE("not ",B93)</f>
+        <v>not Damage to Property</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="13" t="str">
+        <f>B93</f>
+        <v>Damage to Property</v>
+      </c>
+      <c r="H93" s="13" t="str">
+        <f>C93</f>
+        <v>not Damage to Property</v>
+      </c>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="16">
+        <f>SUM(oldBailey_raw_count!M2:'oldBailey_raw_count'!M239)</f>
+        <v>1166</v>
+      </c>
+      <c r="C94" s="16">
+        <f>SUM(oldBailey_raw_count!C2:'oldBailey_raw_count'!L239)</f>
+        <v>251386</v>
+      </c>
+      <c r="D94" s="13">
+        <f>SUM(B94+C94)</f>
+        <v>252552</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="13" t="str">
+        <f>A94</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G94" s="14">
+        <f>(D94*B96)/D96</f>
+        <v>1166</v>
+      </c>
+      <c r="H94" s="17">
+        <f>(D94*C96)/D96</f>
+        <v>251386</v>
+      </c>
+      <c r="I94" s="14">
+        <f>SUM(G94:H94)</f>
+        <v>252552</v>
+      </c>
+      <c r="J94" s="15"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="13">
+        <f>SUM(B95+C95)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="13" t="str">
+        <f>A95</f>
+        <v>notOB</v>
+      </c>
+      <c r="G95" s="13">
+        <f>(D95*B96)/D96</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="13">
+        <f>(D95*C96)/D96</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
+        <f>SUM(G95:H95)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="15"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13">
+        <f>(B94+B95)</f>
+        <v>1166</v>
+      </c>
+      <c r="C96" s="13">
+        <f>(C94+C95)</f>
+        <v>251386</v>
+      </c>
+      <c r="D96" s="13">
+        <f>IF(SUM(D94:D95)&lt;&gt;SUM(B96:C96),"PROBLEM",SUM(D94:D95))</f>
+        <v>252552</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14">
+        <f>SUM(G94:G95)</f>
+        <v>1166</v>
+      </c>
+      <c r="H96" s="13">
+        <f>SUM(H94:H95)</f>
+        <v>251386</v>
+      </c>
+      <c r="I96" s="14">
+        <f>SUM(G96:H96)</f>
+        <v>252552</v>
+      </c>
+      <c r="J96" s="15"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <f>B94</f>
+        <v>1166</v>
+      </c>
+      <c r="B100" s="13">
+        <f>G94</f>
+        <v>1166</v>
+      </c>
+      <c r="C100" s="13">
+        <f>A100-B100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="13">
+        <f>C100*C100</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="14">
+        <f>D100/B100</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <f>B95</f>
+        <v>0</v>
+      </c>
+      <c r="B101" s="13">
+        <f>G95</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="13">
+        <f t="shared" ref="C101:C103" si="30">A101-B101</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="13">
+        <f t="shared" ref="D101:D103" si="31">C101*C101</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="14" t="e">
+        <f t="shared" ref="E101:E103" si="32">D101/B101</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <f>C94</f>
+        <v>251386</v>
+      </c>
+      <c r="B102" s="13">
+        <f>H94</f>
+        <v>251386</v>
+      </c>
+      <c r="C102" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <f>C95</f>
+        <v>0</v>
+      </c>
+      <c r="B103" s="13">
+        <f>H95</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="13">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="14" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H104" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I104" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J104" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="14" t="e">
+        <f>SUM(E100:E103)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H105" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I105" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J105" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23" t="e">
+        <f>IF(E105&gt;=G105,IF(E105&gt;H105,IF(E105&gt;I105,IF(E105&gt;J105,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J104,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I104,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H104,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G104,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="str">
-        <f>CONCATENATE("h1: there is an association between the old bailey and the charge of ",oldBailey_raw!C1)</f>
-        <v>h1: there is an association between the old bailey and the charge of multiple offences</v>
+        <f>CONCATENATE("h1: there is an association between being charged in London for a property offence and the gender ",Table2[[#Headers],[female]])</f>
+        <v>h1: there is an association between being charged in London for a property offence and the gender female</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -11771,12 +16858,12 @@
         <v>28</v>
       </c>
       <c r="B3" s="13" t="str">
-        <f>oldBailey_raw!C1</f>
-        <v>multiple offences</v>
+        <f>Table2[[#Headers],[female]]</f>
+        <v>female</v>
       </c>
       <c r="C3" s="13" t="str">
         <f>CONCATENATE("not ",B3)</f>
-        <v>not multiple offences</v>
+        <v>not female</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
@@ -11785,11 +16872,11 @@
       </c>
       <c r="G3" s="13" t="str">
         <f>B3</f>
-        <v>multiple offences</v>
+        <v>female</v>
       </c>
       <c r="H3" s="13" t="str">
         <f>C3</f>
-        <v>not multiple offences</v>
+        <v>not female</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
@@ -11799,16 +16886,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="16">
-        <f>SUM(oldBailey_raw!C2:'oldBailey_raw'!C239)</f>
-        <v>2053</v>
+        <f>SUM(oldBailey_raw_gender!D6,oldBailey_raw_gender!D12,oldBailey_raw_gender!D13,oldBailey_raw_gender!D7)</f>
+        <v>45121</v>
       </c>
       <c r="C4" s="16">
-        <f>SUM(oldBailey_raw!D2:'oldBailey_raw'!M239)</f>
-        <v>250499</v>
+        <f>SUM(oldBailey_raw_gender!C13,oldBailey_raw_gender!C12,oldBailey_raw_gender!E13,oldBailey_raw_gender!E12,oldBailey_raw_gender!E6,oldBailey_raw_gender!C6,oldBailey_raw_gender!C7,oldBailey_raw_gender!E7)</f>
+        <v>158210</v>
       </c>
       <c r="D4" s="13">
         <f>SUM(B4+C4)</f>
-        <v>252552</v>
+        <v>203331</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="str">
@@ -11817,15 +16904,15 @@
       </c>
       <c r="G4" s="14">
         <f>(D4*B6)/D6</f>
-        <v>2053</v>
+        <v>45202.167488458632</v>
       </c>
       <c r="H4" s="17">
         <f>(D4*C6)/D6</f>
-        <v>250499</v>
+        <v>158128.83251154135</v>
       </c>
       <c r="I4" s="14">
         <f>SUM(G4:H4)</f>
-        <v>252552</v>
+        <v>203330.99999999997</v>
       </c>
       <c r="J4" s="15"/>
     </row>
@@ -11833,11 +16920,17 @@
       <c r="A5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="18">
+        <f>beattie_raw!D26</f>
+        <v>3630.7640000000006</v>
+      </c>
+      <c r="C5" s="19">
+        <f>beattie_raw!C26</f>
+        <v>12336.236000000001</v>
+      </c>
       <c r="D5" s="13">
         <f>SUM(B5+C5)</f>
-        <v>0</v>
+        <v>15967.000000000002</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="str">
@@ -11846,15 +16939,15 @@
       </c>
       <c r="G5" s="13">
         <f>(D5*B6)/D6</f>
-        <v>0</v>
+        <v>3549.5965115413733</v>
       </c>
       <c r="H5" s="13">
         <f>(D5*C6)/D6</f>
-        <v>0</v>
+        <v>12417.403488458629</v>
       </c>
       <c r="I5" s="13">
         <f>SUM(G5:H5)</f>
-        <v>0</v>
+        <v>15967.000000000002</v>
       </c>
       <c r="J5" s="15"/>
     </row>
@@ -11862,29 +16955,29 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13">
         <f>(B4+B5)</f>
-        <v>2053</v>
+        <v>48751.764000000003</v>
       </c>
       <c r="C6" s="13">
         <f>(C4+C5)</f>
-        <v>250499</v>
+        <v>170546.236</v>
       </c>
       <c r="D6" s="13">
-        <f>SUM(D4:D5)</f>
-        <v>252552</v>
+        <f>IF(SUM(D4:D5)&lt;&gt;SUM(B6:C6),"PROBLEM",SUM(D4:D5))</f>
+        <v>219298</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14">
         <f>SUM(G4:G5)</f>
-        <v>2053</v>
+        <v>48751.764000000003</v>
       </c>
       <c r="H6" s="13">
         <f>SUM(H4:H5)</f>
-        <v>250499</v>
+        <v>170546.23599999998</v>
       </c>
       <c r="I6" s="14">
         <f>SUM(G6:H6)</f>
-        <v>252552</v>
+        <v>219297.99999999997</v>
       </c>
       <c r="J6" s="15"/>
     </row>
@@ -11937,23 +17030,23 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f>B4</f>
-        <v>2053</v>
+        <v>45121</v>
       </c>
       <c r="B10" s="13">
         <f>G4</f>
-        <v>2053</v>
+        <v>45202.167488458632</v>
       </c>
       <c r="C10" s="13">
         <f>A10-B10</f>
-        <v>0</v>
+        <v>-81.167488458631851</v>
       </c>
       <c r="D10" s="13">
         <f>C10*C10</f>
-        <v>0</v>
+        <v>6588.1611826821345</v>
       </c>
       <c r="E10" s="14">
         <f>D10/B10</f>
-        <v>0</v>
+        <v>0.14574878924476961</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -11964,23 +17057,23 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>3630.7640000000006</v>
       </c>
       <c r="B11" s="13">
         <f>G5</f>
-        <v>0</v>
+        <v>3549.5965115413733</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" ref="C11:C13" si="0">A11-B11</f>
-        <v>0</v>
+        <v>81.167488458627304</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" ref="D11:D13" si="1">C11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="e">
+        <v>6588.1611826813969</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" ref="E11:E13" si="2">D11/B11</f>
-        <v>#DIV/0!</v>
+        <v>1.856031005569295</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -11991,23 +17084,23 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f>C4</f>
-        <v>250499</v>
+        <v>158210</v>
       </c>
       <c r="B12" s="13">
         <f>H4</f>
-        <v>250499</v>
+        <v>158128.83251154135</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81.167488458653679</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6588.1611826856779</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1663250642192833E-2</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -12018,23 +17111,23 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f>C5</f>
-        <v>0</v>
+        <v>12336.236000000001</v>
       </c>
       <c r="B13" s="13">
         <f>H5</f>
-        <v>0</v>
+        <v>12417.403488458629</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-81.167488458628213</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="e">
+        <v>6588.1611826815442</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.53055867829413117</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
@@ -12071,9 +17164,9 @@
       <c r="D15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14" t="e">
+      <c r="E15" s="14">
         <f>SUM(E10:E13)</f>
-        <v>#DIV/0!</v>
+        <v>2.5740017237503889</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14">
@@ -12103,9 +17196,9 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
-      <c r="B17" s="23" t="e">
+      <c r="B17" s="23" t="str">
         <f>IF(E15&gt;=G15,IF(E15&gt;H15,IF(E15&gt;I15,IF(E15&gt;J15,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J14,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H14,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G14,"%")),"REJECT THE HYPOTHESIS")</f>
-        <v>#DIV/0!</v>
+        <v>REJECT THE HYPOTHESIS</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -12119,4 +17212,3269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>252552</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7715</v>
+      </c>
+      <c r="D3" s="1">
+        <v>546</v>
+      </c>
+      <c r="E3" s="1">
+        <v>173837</v>
+      </c>
+      <c r="F3" s="1">
+        <v>555</v>
+      </c>
+      <c r="G3" s="1">
+        <v>69740</v>
+      </c>
+      <c r="H3" s="1">
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3">
+        <v>1782</v>
+      </c>
+      <c r="L3">
+        <v>2571</v>
+      </c>
+      <c r="M3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7221</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6838</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>266</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>109</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2053</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>226</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1312</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>492</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8611</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6097</v>
+      </c>
+      <c r="F6" s="1">
+        <v>97</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2261</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>114</v>
+      </c>
+      <c r="L6">
+        <v>57</v>
+      </c>
+      <c r="M6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1166</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>659</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>481</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16012</v>
+      </c>
+      <c r="C8" s="1">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11212</v>
+      </c>
+      <c r="F8" s="1">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4463</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>320</v>
+      </c>
+      <c r="L8">
+        <v>391</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6103</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2995</v>
+      </c>
+      <c r="F9" s="1">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2971</v>
+      </c>
+      <c r="H9" s="1">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3860</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2205</v>
+      </c>
+      <c r="F10" s="1">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1598</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13837</v>
+      </c>
+      <c r="C11" s="1">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10911</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2804</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7536</v>
+      </c>
+      <c r="C12" s="1">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4724</v>
+      </c>
+      <c r="F12" s="1">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2679</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>173541</v>
+      </c>
+      <c r="C13" s="1">
+        <v>462</v>
+      </c>
+      <c r="D13" s="1">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1">
+        <v>125655</v>
+      </c>
+      <c r="F13" s="1">
+        <v>110</v>
+      </c>
+      <c r="G13" s="1">
+        <v>47158</v>
+      </c>
+      <c r="H13" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12612</v>
+      </c>
+      <c r="C14" s="1">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7801</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4724</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between in London for a ",J3," offence and the verdict ",$L$2)</f>
+        <v>h1: there is an association between in London for a Property offence and the verdict Guilty</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between in London for a ",J6," offence and the verdict ",$L$2)</f>
+        <v>h1: there is an association between in London for a Murder offence and the verdict Guilty</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>$L$2</f>
+        <v>Guilty</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>CONCATENATE("not ",B19)</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="13" t="str">
+        <f>B19</f>
+        <v>Guilty</v>
+      </c>
+      <c r="H19" s="13" t="str">
+        <f>C19</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="13" t="str">
+        <f>$L$2</f>
+        <v>Guilty</v>
+      </c>
+      <c r="N19" s="13" t="str">
+        <f>CONCATENATE("not ",M19)</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="13" t="str">
+        <f>M19</f>
+        <v>Guilty</v>
+      </c>
+      <c r="S19" s="13" t="str">
+        <f>N19</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="16">
+        <f>SUM(E7,E13,E14)</f>
+        <v>134115</v>
+      </c>
+      <c r="C20" s="16">
+        <f>SUM(G7,G13,G14)</f>
+        <v>52363</v>
+      </c>
+      <c r="D20" s="13">
+        <f>SUM(B20+C20)</f>
+        <v>186478</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="str">
+        <f>A20</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G20" s="14">
+        <f>(D20*B22)/D22</f>
+        <v>133568.08856003478</v>
+      </c>
+      <c r="H20" s="17">
+        <f>(D20*C22)/D22</f>
+        <v>52909.911439965203</v>
+      </c>
+      <c r="I20" s="14">
+        <f>SUM(G20:H20)</f>
+        <v>186478</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="L20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="16">
+        <f>E9</f>
+        <v>2995</v>
+      </c>
+      <c r="N20" s="16">
+        <f>G9</f>
+        <v>2971</v>
+      </c>
+      <c r="O20" s="13">
+        <f>SUM(M20+N20)</f>
+        <v>5966</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="13" t="str">
+        <f>L20</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R20" s="14">
+        <f>(O20*M22)/O22</f>
+        <v>2955.0042071197413</v>
+      </c>
+      <c r="S20" s="17">
+        <f>(O20*N22)/O22</f>
+        <v>3010.9957928802587</v>
+      </c>
+      <c r="T20" s="14">
+        <f>SUM(R20:S20)</f>
+        <v>5966</v>
+      </c>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18">
+        <f>L3</f>
+        <v>2571</v>
+      </c>
+      <c r="C21" s="19">
+        <f>K3</f>
+        <v>1782</v>
+      </c>
+      <c r="D21" s="13">
+        <f>SUM(B21+C21)</f>
+        <v>4353</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="str">
+        <f>A21</f>
+        <v>notOB</v>
+      </c>
+      <c r="G21" s="13">
+        <f>(D21*B22)/D22</f>
+        <v>3117.9114399652049</v>
+      </c>
+      <c r="H21" s="13">
+        <f>(D21*C22)/D22</f>
+        <v>1235.0885600347951</v>
+      </c>
+      <c r="I21" s="13">
+        <f>SUM(G21:H21)</f>
+        <v>4353</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="L21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="18">
+        <f>L6+L7</f>
+        <v>66</v>
+      </c>
+      <c r="N21" s="19">
+        <f>K6+K7</f>
+        <v>148</v>
+      </c>
+      <c r="O21" s="13">
+        <f>SUM(M21+N21)</f>
+        <v>214</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="13" t="str">
+        <f>L21</f>
+        <v>notOB</v>
+      </c>
+      <c r="R21" s="13">
+        <f>(O21*M22)/O22</f>
+        <v>105.9957928802589</v>
+      </c>
+      <c r="S21" s="13">
+        <f>(O21*N22)/O22</f>
+        <v>108.0042071197411</v>
+      </c>
+      <c r="T21" s="13">
+        <f>SUM(R21:S21)</f>
+        <v>214</v>
+      </c>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <f>(B20+B21)</f>
+        <v>136686</v>
+      </c>
+      <c r="C22" s="13">
+        <f>(C20+C21)</f>
+        <v>54145</v>
+      </c>
+      <c r="D22" s="13">
+        <f>IF(SUM(D20:D21)&lt;&gt;SUM(B22:C22),"PROBLEM",SUM(D20:D21))</f>
+        <v>190831</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <f>SUM(G20:G21)</f>
+        <v>136686</v>
+      </c>
+      <c r="H22" s="13">
+        <f>SUM(H20:H21)</f>
+        <v>54145</v>
+      </c>
+      <c r="I22" s="14">
+        <f>SUM(G22:H22)</f>
+        <v>190831</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13">
+        <f>(M20+M21)</f>
+        <v>3061</v>
+      </c>
+      <c r="N22" s="13">
+        <f>(N20+N21)</f>
+        <v>3119</v>
+      </c>
+      <c r="O22" s="13">
+        <f>IF(SUM(O20:O21)&lt;&gt;SUM(M22:N22),"PROBLEM",SUM(O20:O21))</f>
+        <v>6180</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14">
+        <f>SUM(R20:R21)</f>
+        <v>3061</v>
+      </c>
+      <c r="S22" s="13">
+        <f>SUM(S20:S21)</f>
+        <v>3119</v>
+      </c>
+      <c r="T22" s="14">
+        <f>SUM(R22:S22)</f>
+        <v>6180</v>
+      </c>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="L25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f>B20</f>
+        <v>134115</v>
+      </c>
+      <c r="B26" s="13">
+        <f>G20</f>
+        <v>133568.08856003478</v>
+      </c>
+      <c r="C26" s="13">
+        <f>A26-B26</f>
+        <v>546.91143996521714</v>
+      </c>
+      <c r="D26" s="13">
+        <f>C26*C26</f>
+        <v>299112.1231648273</v>
+      </c>
+      <c r="E26" s="14">
+        <f>D26/B26</f>
+        <v>2.2393980956790105</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="L26" s="12">
+        <f>M20</f>
+        <v>2995</v>
+      </c>
+      <c r="M26" s="13">
+        <f>R20</f>
+        <v>2955.0042071197413</v>
+      </c>
+      <c r="N26" s="13">
+        <f>L26-M26</f>
+        <v>39.995792880258705</v>
+      </c>
+      <c r="O26" s="13">
+        <f>N26*N26</f>
+        <v>1599.6634481205529</v>
+      </c>
+      <c r="P26" s="14">
+        <f>O26/M26</f>
+        <v>0.54134049767724479</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="15"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f>B21</f>
+        <v>2571</v>
+      </c>
+      <c r="B27" s="13">
+        <f>G21</f>
+        <v>3117.9114399652049</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" ref="C27:C29" si="0">A27-B27</f>
+        <v>-546.91143996520486</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" ref="D27:D29" si="1">C27*C27</f>
+        <v>299112.12316481391</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" ref="E27:E29" si="2">D27/B27</f>
+        <v>95.933489107744492</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="L27" s="12">
+        <f>M21</f>
+        <v>66</v>
+      </c>
+      <c r="M27" s="13">
+        <f>R21</f>
+        <v>105.9957928802589</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" ref="N27:N29" si="3">L27-M27</f>
+        <v>-39.995792880258904</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" ref="O27:O29" si="4">N27*N27</f>
+        <v>1599.6634481205688</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" ref="P27:P29" si="5">O27/M27</f>
+        <v>15.091763594123712</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f>C20</f>
+        <v>52363</v>
+      </c>
+      <c r="B28" s="13">
+        <f>H20</f>
+        <v>52909.911439965203</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>-546.91143996520259</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>299112.1231648114</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="2"/>
+        <v>5.6532342433459215</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="L28" s="12">
+        <f>N20</f>
+        <v>2971</v>
+      </c>
+      <c r="M28" s="13">
+        <f>S20</f>
+        <v>3010.9957928802587</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="3"/>
+        <v>-39.995792880258705</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="4"/>
+        <v>1599.6634481205529</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="5"/>
+        <v>0.53127389015391036</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="15"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f>C21</f>
+        <v>1782</v>
+      </c>
+      <c r="B29" s="13">
+        <f>H21</f>
+        <v>1235.0885600347951</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="0"/>
+        <v>546.91143996520486</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>299112.12316481391</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="2"/>
+        <v>242.17868486806103</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="L29" s="12">
+        <f>N21</f>
+        <v>148</v>
+      </c>
+      <c r="M29" s="13">
+        <f>S21</f>
+        <v>108.0042071197411</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="3"/>
+        <v>39.995792880258904</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="4"/>
+        <v>1599.6634481205688</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="5"/>
+        <v>14.811121629244209</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="15"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T30" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U30" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="14">
+        <f>SUM(E26:E29)</f>
+        <v>346.00480631483043</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H31" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J31" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="14">
+        <f>SUM(P26:P29)</f>
+        <v>30.975499611199076</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S31" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T31" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U31" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="15"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="str">
+        <f>IF(E31&gt;=G31,IF(E31&gt;H31,IF(E31&gt;I31,IF(E31&gt;J31,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J30,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I30,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H30,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G30,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23" t="str">
+        <f>IF(P31&gt;=R31,IF(P31&gt;S31,IF(P31&gt;T31,IF(P31&gt;U31,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U30,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T30,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S30,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R30,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="25"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between in London for a Sexual offence and the verdict ",$L$2)</f>
+        <v>h1: there is an association between in London for a Sexual offence and the verdict Guilty</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="L35" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between in London and the verdict ",$L$2)</f>
+        <v>h1: there is an association between in London and the verdict Guilty</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="11"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <f>$L$2</f>
+        <v>Guilty</v>
+      </c>
+      <c r="C37" s="13" t="str">
+        <f>CONCATENATE("not ",B37)</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="13" t="str">
+        <f>B37</f>
+        <v>Guilty</v>
+      </c>
+      <c r="H37" s="13" t="str">
+        <f>C37</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="L37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="13" t="str">
+        <f>$L$2</f>
+        <v>Guilty</v>
+      </c>
+      <c r="N37" s="13" t="str">
+        <f>CONCATENATE("not ",M37)</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="13" t="str">
+        <f>M37</f>
+        <v>Guilty</v>
+      </c>
+      <c r="S37" s="13" t="str">
+        <f>N37</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="T37" s="14"/>
+      <c r="U37" s="15"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="16">
+        <f>E12</f>
+        <v>4724</v>
+      </c>
+      <c r="C38" s="16">
+        <f>G12</f>
+        <v>2679</v>
+      </c>
+      <c r="D38" s="13">
+        <f>SUM(B38+C38)</f>
+        <v>7403</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13" t="str">
+        <f>A38</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G38" s="14">
+        <f>(D38*B40)/D40</f>
+        <v>4716.7799248523888</v>
+      </c>
+      <c r="H38" s="17">
+        <f>(D38*C40)/D40</f>
+        <v>2686.2200751476112</v>
+      </c>
+      <c r="I38" s="14">
+        <f>SUM(G38:H38)</f>
+        <v>7403</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="L38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="16">
+        <f>E3</f>
+        <v>173837</v>
+      </c>
+      <c r="N38" s="16">
+        <f>G3</f>
+        <v>69740</v>
+      </c>
+      <c r="O38" s="13">
+        <f>SUM(M38+N38)</f>
+        <v>243577</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="13" t="str">
+        <f>L38</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="R38" s="14">
+        <f>(O38*M40)/O40</f>
+        <v>173079.42673381444</v>
+      </c>
+      <c r="S38" s="17">
+        <f>(O38*N40)/O40</f>
+        <v>70497.573266185544</v>
+      </c>
+      <c r="T38" s="14">
+        <f>SUM(R38:S38)</f>
+        <v>243577</v>
+      </c>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="18">
+        <f>L9+L10</f>
+        <v>24</v>
+      </c>
+      <c r="C39" s="19">
+        <f>K9+K10</f>
+        <v>25</v>
+      </c>
+      <c r="D39" s="13">
+        <f>SUM(B39+C39)</f>
+        <v>49</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13" t="str">
+        <f>A39</f>
+        <v>notOB</v>
+      </c>
+      <c r="G39" s="13">
+        <f>(D39*B40)/D40</f>
+        <v>31.220075147611379</v>
+      </c>
+      <c r="H39" s="13">
+        <f>(D39*C40)/D40</f>
+        <v>17.779924852388621</v>
+      </c>
+      <c r="I39" s="13">
+        <f>SUM(G39:H39)</f>
+        <v>49</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="L39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="18">
+        <f>SUM(L3:L10)</f>
+        <v>3098</v>
+      </c>
+      <c r="N39" s="19">
+        <f>SUM(K3:K10)</f>
+        <v>2328</v>
+      </c>
+      <c r="O39" s="13">
+        <f>SUM(M39+N39)</f>
+        <v>5426</v>
+      </c>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="13" t="str">
+        <f>L39</f>
+        <v>notOB</v>
+      </c>
+      <c r="R39" s="13">
+        <f>(O39*M40)/O40</f>
+        <v>3855.5732661855482</v>
+      </c>
+      <c r="S39" s="13">
+        <f>(O39*N40)/O40</f>
+        <v>1570.4267338144521</v>
+      </c>
+      <c r="T39" s="13">
+        <f>SUM(R39:S39)</f>
+        <v>5426</v>
+      </c>
+      <c r="U39" s="15"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13">
+        <f>(B38+B39)</f>
+        <v>4748</v>
+      </c>
+      <c r="C40" s="13">
+        <f>(C38+C39)</f>
+        <v>2704</v>
+      </c>
+      <c r="D40" s="13">
+        <f>IF(SUM(D38:D39)&lt;&gt;SUM(B40:C40),"PROBLEM",SUM(D38:D39))</f>
+        <v>7452</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <f>SUM(G38:G39)</f>
+        <v>4748</v>
+      </c>
+      <c r="H40" s="13">
+        <f>SUM(H38:H39)</f>
+        <v>2704</v>
+      </c>
+      <c r="I40" s="14">
+        <f>SUM(G40:H40)</f>
+        <v>7452</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="13">
+        <f>(M38+M39)</f>
+        <v>176935</v>
+      </c>
+      <c r="N40" s="13">
+        <f>(N38+N39)</f>
+        <v>72068</v>
+      </c>
+      <c r="O40" s="13">
+        <f>IF(SUM(O38:O39)&lt;&gt;SUM(M40:N40),"PROBLEM",SUM(O38:O39))</f>
+        <v>249003</v>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14">
+        <f>SUM(R38:R39)</f>
+        <v>176935</v>
+      </c>
+      <c r="S40" s="13">
+        <f>SUM(S38:S39)</f>
+        <v>72068</v>
+      </c>
+      <c r="T40" s="14">
+        <f>SUM(R40:S40)</f>
+        <v>249003</v>
+      </c>
+      <c r="U40" s="15"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="15"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="L43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="15"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <f>B38</f>
+        <v>4724</v>
+      </c>
+      <c r="B44" s="13">
+        <f>G38</f>
+        <v>4716.7799248523888</v>
+      </c>
+      <c r="C44" s="13">
+        <f>A44-B44</f>
+        <v>7.2200751476111691</v>
+      </c>
+      <c r="D44" s="13">
+        <f>C44*C44</f>
+        <v>52.129485137152443</v>
+      </c>
+      <c r="E44" s="14">
+        <f>D44/B44</f>
+        <v>1.1051922279113717E-2</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="L44" s="12">
+        <f>M38</f>
+        <v>173837</v>
+      </c>
+      <c r="M44" s="13">
+        <f>R38</f>
+        <v>173079.42673381444</v>
+      </c>
+      <c r="N44" s="13">
+        <f>L44-M44</f>
+        <v>757.57326618555817</v>
+      </c>
+      <c r="O44" s="13">
+        <f>N44*N44</f>
+        <v>573917.2536390546</v>
+      </c>
+      <c r="P44" s="14">
+        <f>O44/M44</f>
+        <v>3.3159183876989853</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <f>B39</f>
+        <v>24</v>
+      </c>
+      <c r="B45" s="13">
+        <f>G39</f>
+        <v>31.220075147611379</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" ref="C45:C47" si="6">A45-B45</f>
+        <v>-7.2200751476113787</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" ref="D45:D47" si="7">C45*C45</f>
+        <v>52.12948513715547</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" ref="E45:E47" si="8">D45/B45</f>
+        <v>1.669742461883339</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="L45" s="12">
+        <f>M39</f>
+        <v>3098</v>
+      </c>
+      <c r="M45" s="13">
+        <f>R39</f>
+        <v>3855.5732661855482</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" ref="N45:N47" si="9">L45-M45</f>
+        <v>-757.57326618554816</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" ref="O45:O47" si="10">N45*N45</f>
+        <v>573917.25363903947</v>
+      </c>
+      <c r="P45" s="14">
+        <f t="shared" ref="P45:P47" si="11">O45/M45</f>
+        <v>148.85393533367753</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="15"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f>C38</f>
+        <v>2679</v>
+      </c>
+      <c r="B46" s="13">
+        <f>H38</f>
+        <v>2686.2200751476112</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="6"/>
+        <v>-7.2200751476111691</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="7"/>
+        <v>52.129485137152443</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="8"/>
+        <v>1.9406259978266248E-2</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="L46" s="12">
+        <f>N38</f>
+        <v>69740</v>
+      </c>
+      <c r="M46" s="13">
+        <f>S38</f>
+        <v>70497.573266185544</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" si="9"/>
+        <v>-757.57326618554362</v>
+      </c>
+      <c r="O46" s="13">
+        <f t="shared" si="10"/>
+        <v>573917.25363903248</v>
+      </c>
+      <c r="P46" s="14">
+        <f t="shared" si="11"/>
+        <v>8.1409504901967207</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="15"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f>C39</f>
+        <v>25</v>
+      </c>
+      <c r="B47" s="13">
+        <f>H39</f>
+        <v>17.779924852388621</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="6"/>
+        <v>7.2200751476113787</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="7"/>
+        <v>52.12948513715547</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="8"/>
+        <v>2.9319294412063952</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="L47" s="12">
+        <f>N39</f>
+        <v>2328</v>
+      </c>
+      <c r="M47" s="13">
+        <f>S39</f>
+        <v>1570.4267338144521</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" si="9"/>
+        <v>757.57326618554794</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" si="10"/>
+        <v>573917.25363903912</v>
+      </c>
+      <c r="P47" s="14">
+        <f t="shared" si="11"/>
+        <v>365.45305889249346</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="15"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J48" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="S48" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="T48" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="U48" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="14">
+        <f>SUM(E44:E47)</f>
+        <v>4.6321300853471143</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H49" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I49" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49" s="14">
+        <f>SUM(P44:P47)</f>
+        <v>525.76386310406667</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="S49" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="T49" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="U49" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="15"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23" t="str">
+        <f>IF(E49&gt;=G49,IF(E49&gt;H49,IF(E49&gt;I49,IF(E49&gt;J49,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J48,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I48,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H48,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G48,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.95%</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23" t="str">
+        <f>IF(P49&gt;=R49,IF(P49&gt;S49,IF(P49&gt;T49,IF(P49&gt;U49,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-U48,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-T48,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-S48,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-R48,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="25"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="str">
+        <f>CONCATENATE("h1: there is an association between London (violent crimes) and the verdict ",$L$2)</f>
+        <v>h1: there is an association between London (violent crimes) and the verdict Guilty</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <f>$L$2</f>
+        <v>Guilty</v>
+      </c>
+      <c r="C55" s="13" t="str">
+        <f>CONCATENATE("not ",B55)</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="13" t="str">
+        <f>B55</f>
+        <v>Guilty</v>
+      </c>
+      <c r="H55" s="13" t="str">
+        <f>C55</f>
+        <v>not Guilty</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="16">
+        <f>SUM(E9,E14,E12)</f>
+        <v>15520</v>
+      </c>
+      <c r="C56" s="16">
+        <f>SUM(G9,G12,G14)</f>
+        <v>10374</v>
+      </c>
+      <c r="D56" s="13">
+        <f>SUM(B56+C56)</f>
+        <v>25894</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="13" t="str">
+        <f>A56</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G56" s="14">
+        <f>(D56*B58)/D58</f>
+        <v>15420.942906059252</v>
+      </c>
+      <c r="H56" s="17">
+        <f>(D56*C58)/D58</f>
+        <v>10473.057093940748</v>
+      </c>
+      <c r="I56" s="14">
+        <f>SUM(G56:H56)</f>
+        <v>25894</v>
+      </c>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="18">
+        <f>SUM(L6:L10)</f>
+        <v>481</v>
+      </c>
+      <c r="C57" s="19">
+        <f>SUM(K6:K10)</f>
+        <v>493</v>
+      </c>
+      <c r="D57" s="13">
+        <f>SUM(B57+C57)</f>
+        <v>974</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="13" t="str">
+        <f>A57</f>
+        <v>notOB</v>
+      </c>
+      <c r="G57" s="13">
+        <f>(D57*B58)/D58</f>
+        <v>580.05709394074734</v>
+      </c>
+      <c r="H57" s="13">
+        <f>(D57*C58)/D58</f>
+        <v>393.94290605925266</v>
+      </c>
+      <c r="I57" s="13">
+        <f>SUM(G57:H57)</f>
+        <v>974</v>
+      </c>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13">
+        <f>(B56+B57)</f>
+        <v>16001</v>
+      </c>
+      <c r="C58" s="13">
+        <f>(C56+C57)</f>
+        <v>10867</v>
+      </c>
+      <c r="D58" s="13">
+        <f>IF(SUM(D56:D57)&lt;&gt;SUM(B58:C58),"PROBLEM",SUM(D56:D57))</f>
+        <v>26868</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14">
+        <f>SUM(G56:G57)</f>
+        <v>16001</v>
+      </c>
+      <c r="H58" s="13">
+        <f>SUM(H56:H57)</f>
+        <v>10867</v>
+      </c>
+      <c r="I58" s="14">
+        <f>SUM(G58:H58)</f>
+        <v>26868</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <f>B56</f>
+        <v>15520</v>
+      </c>
+      <c r="B62" s="13">
+        <f>G56</f>
+        <v>15420.942906059252</v>
+      </c>
+      <c r="C62" s="13">
+        <f>A62-B62</f>
+        <v>99.057093940748018</v>
+      </c>
+      <c r="D62" s="13">
+        <f>C62*C62</f>
+        <v>9812.3078599861783</v>
+      </c>
+      <c r="E62" s="14">
+        <f>D62/B62</f>
+        <v>0.63629752861160593</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <f>B57</f>
+        <v>481</v>
+      </c>
+      <c r="B63" s="13">
+        <f>G57</f>
+        <v>580.05709394074734</v>
+      </c>
+      <c r="C63" s="13">
+        <f t="shared" ref="C63:C65" si="12">A63-B63</f>
+        <v>-99.057093940747336</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" ref="D63:D65" si="13">C63*C63</f>
+        <v>9812.3078599860419</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" ref="E63:E65" si="14">D63/B63</f>
+        <v>16.916106987544861</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <f>C56</f>
+        <v>10374</v>
+      </c>
+      <c r="B64" s="13">
+        <f>H56</f>
+        <v>10473.057093940748</v>
+      </c>
+      <c r="C64" s="13">
+        <f t="shared" si="12"/>
+        <v>-99.057093940748018</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="13"/>
+        <v>9812.3078599861783</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="14"/>
+        <v>0.93690961215738522</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <f>C57</f>
+        <v>493</v>
+      </c>
+      <c r="B65" s="13">
+        <f>H57</f>
+        <v>393.94290605925266</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" si="12"/>
+        <v>99.057093940747336</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="13"/>
+        <v>9812.3078599860419</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="14"/>
+        <v>24.907944042302869</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H66" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I66" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J66" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="14">
+        <f>SUM(E62:E65)</f>
+        <v>43.397258170616723</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H67" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I67" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J67" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23" t="str">
+        <f>IF(E67&gt;=G67,IF(E67&gt;H67,IF(E67&gt;I67,IF(E67&gt;J67,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J66,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I66,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H66,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G66,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>252552</v>
+      </c>
+      <c r="C3" s="1">
+        <v>76329</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13513</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5229</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14153</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83454</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7620</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5818</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46436</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f>15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7221</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2091</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2391</v>
+      </c>
+      <c r="E4" s="1">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1354</v>
+      </c>
+      <c r="G4" s="1">
+        <v>373</v>
+      </c>
+      <c r="H4" s="1">
+        <v>173</v>
+      </c>
+      <c r="I4" s="1">
+        <v>501</v>
+      </c>
+      <c r="J4" s="1">
+        <v>286</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2053</v>
+      </c>
+      <c r="C5" s="1">
+        <v>502</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>180</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1082</v>
+      </c>
+      <c r="H5" s="1">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1">
+        <v>93</v>
+      </c>
+      <c r="J5" s="1">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8611</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2433</v>
+      </c>
+      <c r="D6" s="1">
+        <v>250</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>217</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4447</v>
+      </c>
+      <c r="H6" s="1">
+        <v>833</v>
+      </c>
+      <c r="I6" s="1">
+        <v>267</v>
+      </c>
+      <c r="J6" s="1">
+        <v>162</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6">
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1166</v>
+      </c>
+      <c r="C7" s="1">
+        <v>494</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>497</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16012</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5019</v>
+      </c>
+      <c r="D8" s="1">
+        <v>382</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
+        <v>434</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7916</v>
+      </c>
+      <c r="H8" s="1">
+        <v>496</v>
+      </c>
+      <c r="I8" s="1">
+        <v>902</v>
+      </c>
+      <c r="J8" s="1">
+        <v>818</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6103</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3112</v>
+      </c>
+      <c r="D9" s="1">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>843</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1353</v>
+      </c>
+      <c r="H9" s="1">
+        <v>528</v>
+      </c>
+      <c r="I9" s="1">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3860</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1669</v>
+      </c>
+      <c r="D10" s="1">
+        <v>236</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>284</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H10" s="1">
+        <v>283</v>
+      </c>
+      <c r="I10" s="1">
+        <v>276</v>
+      </c>
+      <c r="J10" s="1">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13837</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3112</v>
+      </c>
+      <c r="D11" s="1">
+        <v>534</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>700</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8180</v>
+      </c>
+      <c r="H11" s="1">
+        <v>195</v>
+      </c>
+      <c r="I11" s="1">
+        <v>227</v>
+      </c>
+      <c r="J11" s="1">
+        <v>878</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7536</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2822</v>
+      </c>
+      <c r="D12" s="1">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>143</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3636</v>
+      </c>
+      <c r="H12" s="1">
+        <v>416</v>
+      </c>
+      <c r="I12" s="1">
+        <v>203</v>
+      </c>
+      <c r="J12" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>173541</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50227</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8890</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5070</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7165</v>
+      </c>
+      <c r="G13" s="1">
+        <v>51625</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4535</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3176</v>
+      </c>
+      <c r="J13" s="1">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12612</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4848</v>
+      </c>
+      <c r="D14" s="1">
+        <v>475</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2796</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3341</v>
+      </c>
+      <c r="H14" s="1">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1">
+        <v>81</v>
+      </c>
+      <c r="J14" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>M2</f>
+        <v>Sentenced to death</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>CONCATENATE("not ",B18)</f>
+        <v>not Sentenced to death</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="13" t="str">
+        <f>B18</f>
+        <v>Sentenced to death</v>
+      </c>
+      <c r="H18" s="13" t="str">
+        <f>C18</f>
+        <v>not Sentenced to death</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="16">
+        <f>F3</f>
+        <v>14153</v>
+      </c>
+      <c r="C19" s="16">
+        <f>D3+E3+G3+H3+I3+J3</f>
+        <v>162070</v>
+      </c>
+      <c r="D19" s="13">
+        <f>SUM(B19+C19)</f>
+        <v>176223</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13" t="str">
+        <f>A19</f>
+        <v>oldBailey</v>
+      </c>
+      <c r="G19" s="14">
+        <f>(D19*B21)/D21</f>
+        <v>14263.973336507559</v>
+      </c>
+      <c r="H19" s="17">
+        <f>(D19*C21)/D21</f>
+        <v>161959.02666349243</v>
+      </c>
+      <c r="I19" s="14">
+        <f>SUM(G19:H19)</f>
+        <v>176223</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="18">
+        <f>SUM(M3:M11)</f>
+        <v>127</v>
+      </c>
+      <c r="C20" s="19">
+        <f>SUM(N3:N11)</f>
+        <v>71</v>
+      </c>
+      <c r="D20" s="13">
+        <f>SUM(B20+C20)</f>
+        <v>198</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="str">
+        <f>A20</f>
+        <v>notOB</v>
+      </c>
+      <c r="G20" s="13">
+        <f>(D20*B21)/D21</f>
+        <v>16.026663492441376</v>
+      </c>
+      <c r="H20" s="13">
+        <f>(D20*C21)/D21</f>
+        <v>181.97333650755863</v>
+      </c>
+      <c r="I20" s="13">
+        <f>SUM(G20:H20)</f>
+        <v>198</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <f>(B19+B20)</f>
+        <v>14280</v>
+      </c>
+      <c r="C21" s="13">
+        <f>(C19+C20)</f>
+        <v>162141</v>
+      </c>
+      <c r="D21" s="13">
+        <f>IF(SUM(D19:D20)&lt;&gt;SUM(B21:C21),"PROBLEM",SUM(D19:D20))</f>
+        <v>176421</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <f>SUM(G19:G20)</f>
+        <v>14280</v>
+      </c>
+      <c r="H21" s="13">
+        <f>SUM(H19:H20)</f>
+        <v>162141</v>
+      </c>
+      <c r="I21" s="14">
+        <f>SUM(G21:H21)</f>
+        <v>176421</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <f>B19</f>
+        <v>14153</v>
+      </c>
+      <c r="B25" s="13">
+        <f>G19</f>
+        <v>14263.973336507559</v>
+      </c>
+      <c r="C25" s="13">
+        <f>A25-B25</f>
+        <v>-110.973336507559</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C25*C25</f>
+        <v>12315.081415619927</v>
+      </c>
+      <c r="E25" s="14">
+        <f>D25/B25</f>
+        <v>0.8633696323660679</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <f>B20</f>
+        <v>127</v>
+      </c>
+      <c r="B26" s="13">
+        <f>G20</f>
+        <v>16.026663492441376</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" ref="C26:C28" si="0">A26-B26</f>
+        <v>110.97333650755863</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" ref="D26:D28" si="1">C26*C26</f>
+        <v>12315.081415619845</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" ref="E26:E28" si="2">D26/B26</f>
+        <v>768.41205416386151</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <f>C19</f>
+        <v>162070</v>
+      </c>
+      <c r="B27" s="13">
+        <f>H19</f>
+        <v>161959.02666349243</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="0"/>
+        <v>110.97333650756627</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>12315.081415621542</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="2"/>
+        <v>7.6038252818158694E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f>C20</f>
+        <v>71</v>
+      </c>
+      <c r="B28" s="13">
+        <f>H20</f>
+        <v>181.97333650755863</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="0"/>
+        <v>-110.97333650755863</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>12315.081415619845</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="2"/>
+        <v>67.675197102891573</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="14">
+        <f>SUM(E25:E28)</f>
+        <v>837.02665915193734</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I30" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J30" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="str">
+        <f>IF(E30&gt;=G30,IF(E30&gt;H30,IF(E30&gt;I30,IF(E30&gt;J30,CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-J29,"%"),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-I29,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-H29,"%")),CONCATENATE("ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN ",1-G29,"%")),"REJECT THE HYPOTHESIS")</f>
+        <v>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/worksheet_new_nums.xlsx
+++ b/worksheet_new_nums.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="oldBailey_descStats" sheetId="4" r:id="rId1"/>
-    <sheet name="oldBailey_raw_count" sheetId="1" r:id="rId2"/>
-    <sheet name="oldBailey_raw_gender" sheetId="7" r:id="rId3"/>
-    <sheet name="beattie_raw" sheetId="5" r:id="rId4"/>
-    <sheet name="chisquared_tables_count" sheetId="3" r:id="rId5"/>
-    <sheet name="chisquared_tables_gender" sheetId="8" r:id="rId6"/>
-    <sheet name="verdict" sheetId="9" r:id="rId7"/>
-    <sheet name="sentences" sheetId="10" r:id="rId8"/>
+    <sheet name="all_stats" sheetId="11" r:id="rId1"/>
+    <sheet name="oldBailey_descStats" sheetId="4" r:id="rId2"/>
+    <sheet name="oldBailey_raw_count" sheetId="1" r:id="rId3"/>
+    <sheet name="oldBailey_raw_gender" sheetId="7" r:id="rId4"/>
+    <sheet name="beattie_raw" sheetId="5" r:id="rId5"/>
+    <sheet name="chisquared_tables_count" sheetId="3" r:id="rId6"/>
+    <sheet name="chisquared_tables_gender" sheetId="8" r:id="rId7"/>
+    <sheet name="verdict" sheetId="9" r:id="rId8"/>
+    <sheet name="sentences" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="127">
   <si>
     <t>Year</t>
   </si>
@@ -308,13 +309,106 @@
     <t>Coining</t>
   </si>
   <si>
-    <t>h1: there is an association between being in London and being sentneced to death</t>
+    <t>h1: there is an association between being in London and being sentenced to death</t>
+  </si>
+  <si>
+    <t>Old Bailey Only Counts</t>
+  </si>
+  <si>
+    <t>Old Bailey Gender Counts</t>
+  </si>
+  <si>
+    <t>h1: there is an association between the old bailey and the charge of Killing</t>
+  </si>
+  <si>
+    <t>not Killing</t>
+  </si>
+  <si>
+    <t>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.999%</t>
+  </si>
+  <si>
+    <t>h1: there is an association between the old bailey and the charge of Sexual Offences</t>
+  </si>
+  <si>
+    <t>not Sexual Offences</t>
+  </si>
+  <si>
+    <t>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.99%</t>
+  </si>
+  <si>
+    <t>h1: there is an association between the old bailey and the charge of Theft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not </t>
+  </si>
+  <si>
+    <t>h1: there is an association between being charged in London for a property offence and the gender female</t>
+  </si>
+  <si>
+    <t>not female</t>
+  </si>
+  <si>
+    <t>REJECT THE HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>h1: there is an association between in London for a Property offence and the verdict Guilty</t>
+  </si>
+  <si>
+    <t>not Guilty</t>
+  </si>
+  <si>
+    <t>h1: there is an association between in London for a Sexual offence and the verdict Guilty</t>
+  </si>
+  <si>
+    <t>ACCEPT THE HYPOTHESIS WITH CONFIDENCE GREATER THAN 0.95%</t>
+  </si>
+  <si>
+    <t>h1: there is an association between London (violent crimes) and the verdict Guilty</t>
+  </si>
+  <si>
+    <t>h1: there is an association between in London for a Murder offence and the verdict Guilty</t>
+  </si>
+  <si>
+    <t>h1: there is an association between in London and the verdict Guilty</t>
+  </si>
+  <si>
+    <t>not Sentenced to death</t>
+  </si>
+  <si>
+    <t>Homicide</t>
+  </si>
+  <si>
+    <t>Rape/Attempted Rape</t>
+  </si>
+  <si>
+    <t>Initial Cases</t>
+  </si>
+  <si>
+    <t>Other Tables</t>
+  </si>
+  <si>
+    <t>Beattie Gender for Property Crime</t>
+  </si>
+  <si>
+    <t>Old Bailey Verdicts</t>
+  </si>
+  <si>
+    <t>Beattie Verdicts</t>
+  </si>
+  <si>
+    <t>Old Bailey Sentences</t>
+  </si>
+  <si>
+    <t>Beattie Sentences</t>
+  </si>
+  <si>
+    <t>CHI-SQUARED ANALYSIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -582,11 +676,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,14 +730,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -661,45 +764,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFAAAAAA"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -736,6 +812,40 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -821,41 +931,44 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M239" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
-  <autoFilter ref="A1:M239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M239" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:M239" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Year" dataDxfId="2"/>
-    <tableColumn id="2" name="Total"/>
-    <tableColumn id="3" name="multiple offences"/>
-    <tableColumn id="4" name="Killing"/>
-    <tableColumn id="5" name="Royal Offences"/>
-    <tableColumn id="6" name="Sexual Offences"/>
-    <tableColumn id="7" name="Theft"/>
-    <tableColumn id="8" name="Violent Theft"/>
-    <tableColumn id="9" name="unknown"/>
-    <tableColumn id="10" name="Breaking Peace"/>
-    <tableColumn id="11" name="Deception"/>
-    <tableColumn id="12" name="Miscellaneous"/>
-    <tableColumn id="13" name="Damage to Property"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="multiple offences"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Killing"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Royal Offences"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sexual Offences"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Theft"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Violent Theft"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="unknown"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Breaking Peace"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Deception"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Miscellaneous"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Damage to Property"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Offence" dataDxfId="1"/>
-    <tableColumn id="2" name="Total"/>
-    <tableColumn id="3" name="male"/>
-    <tableColumn id="4" name="female"/>
-    <tableColumn id="5" name="indeterminate"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Offence" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="male"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="female"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="indeterminate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -904,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,9 +1050,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,6 +1102,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1147,11 +1294,6984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69898C9F-61B1-4B6C-A880-62B2E4A6B4BC}">
+  <dimension ref="A1:X299"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1061.1428571428571</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.6260504201680668</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25.642857142857142</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>58.138655462184872</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
+        <v>31.663865546218489</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5">
+        <v>729.16386554621852</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="5">
+        <v>52.991596638655459</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="5">
+        <v>30.340336134453782</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="5">
+        <v>36.180672268907564</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="5">
+        <v>67.277310924369743</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="5">
+        <v>16.218487394957982</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4.8991596638655466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>49.72758701545191</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.97491603311620778</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.0599904771607642</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.7174245058284088</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.7005625596459448</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5">
+        <v>44.380284212692267</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.2506090261145166</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3.1549008154998166</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="5">
+        <v>3.1196723009417537</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="5">
+        <v>5.0707362050378846</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1.0626631133711326</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.47367271889487828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>895</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="5">
+        <v>489.5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="5">
+        <v>6</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="5">
+        <v>22</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="5">
+        <v>12</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>498</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="5">
+        <v>510</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="5">
+        <v>60</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>767.15984818698848</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>15.040272027035819</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16.352736626565537</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>72.776880700050043</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5">
+        <v>41.662250022983955</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
+        <v>684.66567839949698</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="5">
+        <v>34.720704993503453</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="5">
+        <v>48.67143925386484</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="5">
+        <v>48.127960201245237</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="5">
+        <v>78.227508124300613</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="5">
+        <v>16.393968049855154</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="5">
+        <v>7.3074667991591582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>588534.23267028329</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>226.20978264723612</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5">
+        <v>267.41199517781803</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5296.4743644293158</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1735.7430769776265</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5">
+        <v>468767.0911782434</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1205.5273552458957</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2368.9089990426551</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="5">
+        <v>2316.3005531326453</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="5">
+        <v>6119.5430273375177</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="5">
+        <v>268.76218841967165</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="5">
+        <v>53.399071020813388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.904490707499412</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11.710546597566431</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-0.20046789421564259</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.029893637135638</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.7785037852145091</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.7867475691633254</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-0.38344679753801181</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9.0602056948319181</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="5">
+        <v>-0.39399109311120073</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-0.42964060235388724</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="5">
+        <v>5.6023264500203522</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2.3835814826259769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.4537474610182506</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.1431551353868601</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.7221730818381491</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.6294910889131193</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.6669961884006756</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.8949038301550072</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.59171739883890229</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2.6999881484577126</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1.0239569277390437</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1.0322580087024278</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1.9077726176779801</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="5">
+        <v>1.7313138746715804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3784</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>96</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5">
+        <v>75</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5">
+        <v>356</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5">
+        <v>174</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3206</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="5">
+        <v>157</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5">
+        <v>321</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="5">
+        <v>197</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="5">
+        <v>273</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="5">
+        <v>95</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3785</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5">
+        <v>356</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>174</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3206</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="5">
+        <v>157</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="5">
+        <v>321</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="5">
+        <v>197</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="5">
+        <v>273</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="5">
+        <v>95</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X14" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>252552</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2053</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6103</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="5">
+        <v>13837</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5">
+        <v>7536</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5">
+        <v>173541</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="5">
+        <v>12612</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="5">
+        <v>7221</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="5">
+        <v>8611</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="5">
+        <v>16012</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3860</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6">
+        <v>238</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>238</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6">
+        <v>238</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6">
+        <v>238</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6">
+        <v>238</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="6">
+        <v>238</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="6">
+        <v>238</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="6">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="6">
+        <v>238</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="6">
+        <v>238</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="6">
+        <v>238</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42092</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5">
+        <v>32991</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>9055.1666666666661</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45.833333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>23594.726411624146</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>18266.824227229125</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5324.0224239011268</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5">
+        <v>23.645690661697472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8073.5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7232</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1239</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
+        <v>81734.529871240637</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5">
+        <v>63278.135308981873</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5">
+        <v>18442.954677665515</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5">
+        <v>81.911075212233925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6680533373.272727</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4004122408.181818</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>340142577.24242425</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6709.4242424242429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.0014932718233585</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.2262554684753617</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3.3138080414241005</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5.9201811349265814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.2318305975887482</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.2607406286791587</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2.139439131881371</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2.4376754152117504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5">
+        <v>251386</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5">
+        <v>196980</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5">
+        <v>54133</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1166</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="5">
+        <v>966</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="5">
+        <v>198</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="5">
+        <v>252552</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5">
+        <v>197946</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="5">
+        <v>54331</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5">
+        <v>505104</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5">
+        <v>395892</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5">
+        <v>108662</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6">
+        <v>12</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3084.0590000000002</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5">
+        <v>907.69100000000014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1491.5468606054108</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5">
+        <v>452.31152731165275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1314.2040000000002</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5">
+        <v>316.29599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4218.7315983663684</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1279.3301926836559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5">
+        <v>17797696.299054857</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1636685.7419120001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3.3352311995375192</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.5564500561839782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1.9402189045349441</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.8009087846641036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="5">
+        <v>12007.221000000001</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3538.7110000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="5">
+        <v>329.01499999999999</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="5">
+        <v>92.053000000000011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5">
+        <v>12336.236000000001</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3630.7640000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="5">
+        <v>24672.472000000002</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5">
+        <v>7261.5280000000012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="6">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42092</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1285.8333333333333</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5">
+        <v>91</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="5">
+        <v>28972.833333333332</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="5">
+        <v>11623.333333333334</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="5">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="5">
+        <v>23594.726411624146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="5">
+        <v>810.35519553421329</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="5">
+        <v>45.528712219473505</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="5">
+        <v>16586.90228528875</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="5">
+        <v>43.754740002967367</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="5">
+        <v>6478.7378965600419</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="5">
+        <v>13.218157850839011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="5">
+        <v>8073.5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="5">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5410.5</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="5">
+        <v>39</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="5">
+        <v>2741.5</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="5">
+        <v>81734.529871240637</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2807.1527416853392</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="5">
+        <v>157.71608553462019</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="5">
+        <v>57458.714996600873</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="5">
+        <v>151.57086551421176</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="5">
+        <v>22443.006411527818</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="5">
+        <v>45.789041960237206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5">
+        <v>6680533373.272727</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7880106.5151515156</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="5">
+        <v>24874.363636363636</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3301503929.060606</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="5">
+        <v>22973.727272727272</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="5">
+        <v>503688536.78787881</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="5">
+        <v>2096.6363636363635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4.0014932718233585</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.768983075949687</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="5">
+        <v>7.052642798671414</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3.6528531401572497</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="5">
+        <v>9.6945500945869139</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="5">
+        <v>4.0977704219308553</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="5">
+        <v>7.1966324764629803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2.2318305975887482</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2.067122526400528</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2.5760081966682526</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2.1808683641864581</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3.010018566523784</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="5">
+        <v>2.2417851245364782</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="5">
+        <v>2.6391137951440102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="5">
+        <v>251386</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="5">
+        <v>7708</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="5">
+        <v>545</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="5">
+        <v>173571</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="5">
+        <v>548</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="5">
+        <v>69631</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1166</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="5">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="5">
+        <v>266</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="5">
+        <v>7</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="5">
+        <v>109</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="5">
+        <v>252552</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="5">
+        <v>7715</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="5">
+        <v>546</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="5">
+        <v>173837</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="5">
+        <v>555</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="5">
+        <v>69740</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="5">
+        <v>505104</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="5">
+        <v>15430</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1092</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="5">
+        <v>347674</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1110</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="5">
+        <v>139480</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="6">
+        <v>12</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="6">
+        <v>12</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="6">
+        <v>12</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="6">
+        <v>12</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="6">
+        <v>12</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="6">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="5">
+        <v>291</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="5">
+        <v>387.25</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="5">
+        <v>112.875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="5">
+        <v>216.16057193008822</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="5">
+        <v>315.3410143909968</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="5">
+        <v>101.07748751400014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="5">
+        <v>36</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="5">
+        <v>15</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="5">
+        <v>611.39442494771151</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="5">
+        <v>891.91907864847406</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="5">
+        <v>285.89030738579237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="5">
+        <v>373803.14285714284</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="5">
+        <v>795519.64285714284</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="5">
+        <v>81733.267857142855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="5">
+        <v>7.2935105560973135</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="5">
+        <v>7.4787665362013218</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="5">
+        <v>7.7643911561537244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2.6767602184199779</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2.7168547407308496</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2.7766485722248841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1772</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2568</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="5">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="5">
+        <v>10</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1782</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2571</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="5">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2328</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3098</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="5">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="6">
+        <v>8</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="6">
+        <v>8</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R87" s="7"/>
+    </row>
+    <row r="88" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5">
+        <v>42092</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5">
+        <v>12721.5</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="5">
+        <v>2252.1666666666665</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="5">
+        <v>871.5</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="5">
+        <v>2358.8333333333335</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="5">
+        <v>13909</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="5">
+        <v>1270</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P89" s="5">
+        <v>969.66666666666663</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R89" s="5">
+        <v>7739.333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="5">
+        <v>23594.726411624146</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="5">
+        <v>7015.3665917517583</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1253.1726635813097</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="5">
+        <v>576.94858890755961</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1218.8463176133389</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="5">
+        <v>7530.9044579350148</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="5">
+        <v>678.81964177578573</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90" s="5">
+        <v>507.35276015049254</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R90" s="5">
+        <v>4982.171831296635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="5">
+        <v>8073.5</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2967</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5">
+        <v>316</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="5">
+        <v>11</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="5">
+        <v>567</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="5">
+        <v>3488.5</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="5">
+        <v>349.5</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="5">
+        <v>247</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R91" s="5">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3112</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R92" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="5">
+        <v>81734.529871240637</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="5">
+        <v>24301.942741270708</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="5">
+        <v>4341.117447958497</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1998.6085386861257</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="5">
+        <v>4222.2074974490715</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="5">
+        <v>26087.818296180798</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="5">
+        <v>2351.5002174627311</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P93" s="5">
+        <v>1757.521515881919</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R93" s="5">
+        <v>17258.749487688496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="5">
+        <v>6680533373.272727</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="5">
+        <v>590584421</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="5">
+        <v>18845300.696969695</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="5">
+        <v>3994436.0909090908</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="5">
+        <v>17827036.151515152</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="5">
+        <v>680574263.4545455</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" s="5">
+        <v>5529553.2727272725</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P94" s="5">
+        <v>3088881.8787878784</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R94" s="5">
+        <v>297864433.87878788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="5">
+        <v>4.0014932718233585</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="5">
+        <v>4.3090652094386055</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="5">
+        <v>4.0297343596053548</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="5">
+        <v>2.6490674070205698</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="5">
+        <v>5.896100501927938</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95" s="5">
+        <v>4.6741257020290057</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="5">
+        <v>4.9910101565607885</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" s="5">
+        <v>5.5470298849528312</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R95" s="5">
+        <v>2.7024914385327969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2.2318305975887482</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2.2736209055486385</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="5">
+        <v>2.1954409573370297</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2.0562444801998443</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="5">
+        <v>2.4392477859148722</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="5">
+        <v>2.3063342958428374</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="5">
+        <v>2.3520861695081736</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" s="5">
+        <v>2.4135995899881508</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R96" s="5">
+        <v>2.0624421827813002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="5">
+        <v>251386</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="5">
+        <v>75835</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="5">
+        <v>13486</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="5">
+        <v>5228</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="5">
+        <v>14116</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="5">
+        <v>83081</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="5">
+        <v>7584</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P97" s="5">
+        <v>5786</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R97" s="5">
+        <v>46397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1166</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="5">
+        <v>494</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="5">
+        <v>27</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="5">
+        <v>37</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L98" s="5">
+        <v>373</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="5">
+        <v>36</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P98" s="5">
+        <v>32</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R98" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="5">
+        <v>252552</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="5">
+        <v>76329</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="5">
+        <v>13513</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" s="5">
+        <v>5229</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="5">
+        <v>14153</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="5">
+        <v>83454</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="5">
+        <v>7620</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="5">
+        <v>5818</v>
+      </c>
+      <c r="Q99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99" s="5">
+        <v>46436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="5">
+        <v>505104</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="5">
+        <v>152658</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="5">
+        <v>27026</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="5">
+        <v>10458</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="5">
+        <v>28306</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" s="5">
+        <v>166908</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N100" s="5">
+        <v>15240</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P100" s="5">
+        <v>11636</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R100" s="5">
+        <v>92872</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="6">
+        <v>12</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="6">
+        <v>12</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="6">
+        <v>12</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="6">
+        <v>12</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="6">
+        <v>12</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" s="6">
+        <v>12</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" s="6">
+        <v>12</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P101" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R101" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="5">
+        <v>14.111111111111111</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5">
+        <v>7.8888888888888893</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="5">
+        <v>3.2164699613622507</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1.7673304133985408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="5">
+        <v>12</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="5">
+        <v>9.6494098840867526</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="5">
+        <v>5.3019912401956226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="5">
+        <v>93.111111111111114</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="5">
+        <v>28.111111111111114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="5">
+        <v>-1.4738183187447267</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="5">
+        <v>-1.68534447164796</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.24876138981977589</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.38384628355225808</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="5">
+        <v>26</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="5">
+        <v>2</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="5">
+        <v>28</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" s="5">
+        <v>127</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="6">
+        <v>9</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I123" s="14"/>
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="42">
+        <v>6103</v>
+      </c>
+      <c r="C124" s="42">
+        <v>246449</v>
+      </c>
+      <c r="D124" s="13">
+        <v>252552</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="14">
+        <v>6400.6168778646534</v>
+      </c>
+      <c r="H124" s="17">
+        <v>246151.38312213533</v>
+      </c>
+      <c r="I124" s="14">
+        <v>252552</v>
+      </c>
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="42">
+        <v>477</v>
+      </c>
+      <c r="C125" s="42">
+        <v>6601</v>
+      </c>
+      <c r="D125" s="13">
+        <v>7078</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="13">
+        <v>179.38312213534647</v>
+      </c>
+      <c r="H125" s="13">
+        <v>6898.6168778646534</v>
+      </c>
+      <c r="I125" s="13">
+        <v>7078</v>
+      </c>
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="13">
+        <v>6580</v>
+      </c>
+      <c r="C126" s="13">
+        <v>253050</v>
+      </c>
+      <c r="D126" s="13">
+        <v>259630</v>
+      </c>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14">
+        <v>6580</v>
+      </c>
+      <c r="H126" s="13">
+        <v>253050</v>
+      </c>
+      <c r="I126" s="14">
+        <v>259630</v>
+      </c>
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>6103</v>
+      </c>
+      <c r="B130" s="13">
+        <v>6400.6168778646534</v>
+      </c>
+      <c r="C130" s="13">
+        <v>-297.61687786465336</v>
+      </c>
+      <c r="D130" s="13">
+        <v>88575.805989903994</v>
+      </c>
+      <c r="E130" s="14">
+        <v>13.838635819029724</v>
+      </c>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>477</v>
+      </c>
+      <c r="B131" s="13">
+        <v>179.38312213534647</v>
+      </c>
+      <c r="C131" s="13">
+        <v>297.61687786465353</v>
+      </c>
+      <c r="D131" s="13">
+        <v>88575.805989904096</v>
+      </c>
+      <c r="E131" s="14">
+        <v>493.7800442734669</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>246449</v>
+      </c>
+      <c r="B132" s="13">
+        <v>246151.38312213533</v>
+      </c>
+      <c r="C132" s="13">
+        <v>297.61687786466791</v>
+      </c>
+      <c r="D132" s="13">
+        <v>88575.805989912653</v>
+      </c>
+      <c r="E132" s="14">
+        <v>0.35984281244506811</v>
+      </c>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>6601</v>
+      </c>
+      <c r="B133" s="13">
+        <v>6898.6168778646534</v>
+      </c>
+      <c r="C133" s="13">
+        <v>-297.61687786465336</v>
+      </c>
+      <c r="D133" s="13">
+        <v>88575.805989903994</v>
+      </c>
+      <c r="E133" s="14">
+        <v>12.839647071011298</v>
+      </c>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H134" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J134" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="14">
+        <v>520.81816997595297</v>
+      </c>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H135" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I135" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J135" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="15"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="22"/>
+      <c r="B137" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="25"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I141" s="14"/>
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" s="42">
+        <v>7536</v>
+      </c>
+      <c r="C142" s="42">
+        <v>245016</v>
+      </c>
+      <c r="D142" s="13">
+        <v>252552</v>
+      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="14">
+        <v>7490.0835804799135</v>
+      </c>
+      <c r="H142" s="17">
+        <v>245061.91641952007</v>
+      </c>
+      <c r="I142" s="14">
+        <v>252552</v>
+      </c>
+      <c r="J142" s="15"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="42">
+        <v>164</v>
+      </c>
+      <c r="C143" s="42">
+        <v>6914</v>
+      </c>
+      <c r="D143" s="13">
+        <v>7078</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="13">
+        <v>209.91641952008627</v>
+      </c>
+      <c r="H143" s="13">
+        <v>6868.0835804799135</v>
+      </c>
+      <c r="I143" s="13">
+        <v>7078</v>
+      </c>
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="13">
+        <v>7700</v>
+      </c>
+      <c r="C144" s="13">
+        <v>251930</v>
+      </c>
+      <c r="D144" s="13">
+        <v>259630</v>
+      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14">
+        <v>7700</v>
+      </c>
+      <c r="H144" s="13">
+        <v>251930</v>
+      </c>
+      <c r="I144" s="14">
+        <v>259630</v>
+      </c>
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="15"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
+        <v>7536</v>
+      </c>
+      <c r="B148" s="13">
+        <v>7490.0835804799135</v>
+      </c>
+      <c r="C148" s="13">
+        <v>45.916419520086492</v>
+      </c>
+      <c r="D148" s="13">
+        <v>2108.3175815445798</v>
+      </c>
+      <c r="E148" s="14">
+        <v>0.28148118227133229</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="15"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
+        <v>164</v>
+      </c>
+      <c r="B149" s="13">
+        <v>209.91641952008627</v>
+      </c>
+      <c r="C149" s="13">
+        <v>-45.916419520086265</v>
+      </c>
+      <c r="D149" s="13">
+        <v>2108.3175815445588</v>
+      </c>
+      <c r="E149" s="14">
+        <v>10.043604908870982</v>
+      </c>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
+        <v>245016</v>
+      </c>
+      <c r="B150" s="13">
+        <v>245061.91641952007</v>
+      </c>
+      <c r="C150" s="13">
+        <v>-45.91641952007194</v>
+      </c>
+      <c r="D150" s="13">
+        <v>2108.3175815432437</v>
+      </c>
+      <c r="E150" s="14">
+        <v>8.6032036815301277E-3</v>
+      </c>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="15"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
+        <v>6914</v>
+      </c>
+      <c r="B151" s="13">
+        <v>6868.0835804799135</v>
+      </c>
+      <c r="C151" s="13">
+        <v>45.916419520086492</v>
+      </c>
+      <c r="D151" s="13">
+        <v>2108.3175815445798</v>
+      </c>
+      <c r="E151" s="14">
+        <v>0.30697319810386747</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="15"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H152" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I152" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J152" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" s="14">
+        <v>10.64066249292771</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H153" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I153" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J153" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="22"/>
+      <c r="B155" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="25"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" s="13"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I159" s="14"/>
+      <c r="J159" s="15"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="42">
+        <v>173541</v>
+      </c>
+      <c r="C160" s="42">
+        <v>79011</v>
+      </c>
+      <c r="D160" s="13">
+        <v>252552</v>
+      </c>
+      <c r="E160" s="14"/>
+      <c r="F160" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="14">
+        <v>175071.4626815083</v>
+      </c>
+      <c r="H160" s="17">
+        <v>77480.537318491697</v>
+      </c>
+      <c r="I160" s="14">
+        <v>252552</v>
+      </c>
+      <c r="J160" s="15"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" s="42">
+        <v>6437</v>
+      </c>
+      <c r="C161" s="42">
+        <v>641</v>
+      </c>
+      <c r="D161" s="13">
+        <v>7078</v>
+      </c>
+      <c r="E161" s="14"/>
+      <c r="F161" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="13">
+        <v>4906.5373184916998</v>
+      </c>
+      <c r="H161" s="13">
+        <v>2171.4626815083002</v>
+      </c>
+      <c r="I161" s="13">
+        <v>7078</v>
+      </c>
+      <c r="J161" s="15"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="13">
+        <v>179978</v>
+      </c>
+      <c r="C162" s="13">
+        <v>79652</v>
+      </c>
+      <c r="D162" s="13">
+        <v>259630</v>
+      </c>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14">
+        <v>179978</v>
+      </c>
+      <c r="H162" s="13">
+        <v>79652</v>
+      </c>
+      <c r="I162" s="14">
+        <v>259630</v>
+      </c>
+      <c r="J162" s="15"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="15"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="15"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="15"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>173541</v>
+      </c>
+      <c r="B166" s="13">
+        <v>175071.4626815083</v>
+      </c>
+      <c r="C166" s="13">
+        <v>-1530.4626815083029</v>
+      </c>
+      <c r="D166" s="13">
+        <v>2342316.019489585</v>
+      </c>
+      <c r="E166" s="14">
+        <v>13.379199462968725</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="15"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>6437</v>
+      </c>
+      <c r="B167" s="13">
+        <v>4906.5373184916998</v>
+      </c>
+      <c r="C167" s="13">
+        <v>1530.4626815083002</v>
+      </c>
+      <c r="D167" s="13">
+        <v>2342316.0194895766</v>
+      </c>
+      <c r="E167" s="14">
+        <v>477.38677349133445</v>
+      </c>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="15"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>79011</v>
+      </c>
+      <c r="B168" s="13">
+        <v>77480.537318491697</v>
+      </c>
+      <c r="C168" s="13">
+        <v>1530.4626815083029</v>
+      </c>
+      <c r="D168" s="13">
+        <v>2342316.019489585</v>
+      </c>
+      <c r="E168" s="14">
+        <v>30.231024468264266</v>
+      </c>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>641</v>
+      </c>
+      <c r="B169" s="13">
+        <v>2171.4626815083002</v>
+      </c>
+      <c r="C169" s="13">
+        <v>-1530.4626815083002</v>
+      </c>
+      <c r="D169" s="13">
+        <v>2342316.0194895766</v>
+      </c>
+      <c r="E169" s="14">
+        <v>1078.6812223098402</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H170" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I170" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J170" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" s="14">
+        <v>1599.6782197324078</v>
+      </c>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H171" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I171" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J171" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="22"/>
+      <c r="B173" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="25"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D177" s="13"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I177" s="14"/>
+      <c r="J177" s="15"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="42">
+        <v>45121</v>
+      </c>
+      <c r="C178" s="42">
+        <v>158210</v>
+      </c>
+      <c r="D178" s="13">
+        <v>203331</v>
+      </c>
+      <c r="E178" s="14"/>
+      <c r="F178" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G178" s="14">
+        <v>45202.167488458632</v>
+      </c>
+      <c r="H178" s="17">
+        <v>158128.83251154135</v>
+      </c>
+      <c r="I178" s="14">
+        <v>203330.99999999997</v>
+      </c>
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="42">
+        <v>3630.7640000000006</v>
+      </c>
+      <c r="C179" s="42">
+        <v>12336.236000000001</v>
+      </c>
+      <c r="D179" s="13">
+        <v>15967.000000000002</v>
+      </c>
+      <c r="E179" s="14"/>
+      <c r="F179" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="13">
+        <v>3549.5965115413733</v>
+      </c>
+      <c r="H179" s="13">
+        <v>12417.403488458629</v>
+      </c>
+      <c r="I179" s="13">
+        <v>15967.000000000002</v>
+      </c>
+      <c r="J179" s="15"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="13">
+        <v>48751.764000000003</v>
+      </c>
+      <c r="C180" s="13">
+        <v>170546.236</v>
+      </c>
+      <c r="D180" s="13">
+        <v>219298</v>
+      </c>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14">
+        <v>48751.764000000003</v>
+      </c>
+      <c r="H180" s="13">
+        <v>170546.23599999998</v>
+      </c>
+      <c r="I180" s="14">
+        <v>219297.99999999997</v>
+      </c>
+      <c r="J180" s="15"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="15"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="15"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="15"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>45121</v>
+      </c>
+      <c r="B184" s="13">
+        <v>45202.167488458632</v>
+      </c>
+      <c r="C184" s="13">
+        <v>-81.167488458631851</v>
+      </c>
+      <c r="D184" s="13">
+        <v>6588.1611826821345</v>
+      </c>
+      <c r="E184" s="14">
+        <v>0.14574878924476961</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="15"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>3630.7640000000006</v>
+      </c>
+      <c r="B185" s="13">
+        <v>3549.5965115413733</v>
+      </c>
+      <c r="C185" s="13">
+        <v>81.167488458627304</v>
+      </c>
+      <c r="D185" s="13">
+        <v>6588.1611826813969</v>
+      </c>
+      <c r="E185" s="14">
+        <v>1.856031005569295</v>
+      </c>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="15"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>158210</v>
+      </c>
+      <c r="B186" s="13">
+        <v>158128.83251154135</v>
+      </c>
+      <c r="C186" s="13">
+        <v>81.167488458653679</v>
+      </c>
+      <c r="D186" s="13">
+        <v>6588.1611826856779</v>
+      </c>
+      <c r="E186" s="14">
+        <v>4.1663250642192833E-2</v>
+      </c>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="15"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>12336.236000000001</v>
+      </c>
+      <c r="B187" s="13">
+        <v>12417.403488458629</v>
+      </c>
+      <c r="C187" s="13">
+        <v>-81.167488458628213</v>
+      </c>
+      <c r="D187" s="13">
+        <v>6588.1611826815442</v>
+      </c>
+      <c r="E187" s="14">
+        <v>0.53055867829413117</v>
+      </c>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="15"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H188" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I188" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J188" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="14">
+        <v>2.5740017237503889</v>
+      </c>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H189" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I189" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J189" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="15"/>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="22"/>
+      <c r="B191" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="25"/>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="15"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D195" s="13"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I195" s="14"/>
+      <c r="J195" s="15"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="42">
+        <v>134115</v>
+      </c>
+      <c r="C196" s="42">
+        <v>52363</v>
+      </c>
+      <c r="D196" s="13">
+        <v>186478</v>
+      </c>
+      <c r="E196" s="14"/>
+      <c r="F196" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" s="14">
+        <v>133568.08856003478</v>
+      </c>
+      <c r="H196" s="17">
+        <v>52909.911439965203</v>
+      </c>
+      <c r="I196" s="14">
+        <v>186478</v>
+      </c>
+      <c r="J196" s="15"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197" s="42">
+        <v>2571</v>
+      </c>
+      <c r="C197" s="42">
+        <v>1782</v>
+      </c>
+      <c r="D197" s="13">
+        <v>4353</v>
+      </c>
+      <c r="E197" s="14"/>
+      <c r="F197" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" s="13">
+        <v>3117.9114399652049</v>
+      </c>
+      <c r="H197" s="13">
+        <v>1235.0885600347951</v>
+      </c>
+      <c r="I197" s="13">
+        <v>4353</v>
+      </c>
+      <c r="J197" s="15"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="13">
+        <v>136686</v>
+      </c>
+      <c r="C198" s="13">
+        <v>54145</v>
+      </c>
+      <c r="D198" s="13">
+        <v>190831</v>
+      </c>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14">
+        <v>136686</v>
+      </c>
+      <c r="H198" s="13">
+        <v>54145</v>
+      </c>
+      <c r="I198" s="14">
+        <v>190831</v>
+      </c>
+      <c r="J198" s="15"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="15"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="15"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="15"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>134115</v>
+      </c>
+      <c r="B202" s="13">
+        <v>133568.08856003478</v>
+      </c>
+      <c r="C202" s="13">
+        <v>546.91143996521714</v>
+      </c>
+      <c r="D202" s="13">
+        <v>299112.1231648273</v>
+      </c>
+      <c r="E202" s="14">
+        <v>2.2393980956790105</v>
+      </c>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="15"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>2571</v>
+      </c>
+      <c r="B203" s="13">
+        <v>3117.9114399652049</v>
+      </c>
+      <c r="C203" s="13">
+        <v>-546.91143996520486</v>
+      </c>
+      <c r="D203" s="13">
+        <v>299112.12316481391</v>
+      </c>
+      <c r="E203" s="14">
+        <v>95.933489107744492</v>
+      </c>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="15"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>52363</v>
+      </c>
+      <c r="B204" s="13">
+        <v>52909.911439965203</v>
+      </c>
+      <c r="C204" s="13">
+        <v>-546.91143996520259</v>
+      </c>
+      <c r="D204" s="13">
+        <v>299112.1231648114</v>
+      </c>
+      <c r="E204" s="14">
+        <v>5.6532342433459215</v>
+      </c>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="15"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>1782</v>
+      </c>
+      <c r="B205" s="13">
+        <v>1235.0885600347951</v>
+      </c>
+      <c r="C205" s="13">
+        <v>546.91143996520486</v>
+      </c>
+      <c r="D205" s="13">
+        <v>299112.12316481391</v>
+      </c>
+      <c r="E205" s="14">
+        <v>242.17868486806103</v>
+      </c>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="15"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H206" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I206" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J206" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" s="14">
+        <v>346.00480631483043</v>
+      </c>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H207" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I207" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J207" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="15"/>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="24"/>
+      <c r="I209" s="24"/>
+      <c r="J209" s="25"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="11"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="12"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="15"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D213" s="13"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H213" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I213" s="14"/>
+      <c r="J213" s="15"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" s="42">
+        <v>4724</v>
+      </c>
+      <c r="C214" s="42">
+        <v>2679</v>
+      </c>
+      <c r="D214" s="13">
+        <v>7403</v>
+      </c>
+      <c r="E214" s="14"/>
+      <c r="F214" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" s="14">
+        <v>4716.7799248523888</v>
+      </c>
+      <c r="H214" s="17">
+        <v>2686.2200751476112</v>
+      </c>
+      <c r="I214" s="14">
+        <v>7403</v>
+      </c>
+      <c r="J214" s="15"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B215" s="42">
+        <v>24</v>
+      </c>
+      <c r="C215" s="42">
+        <v>25</v>
+      </c>
+      <c r="D215" s="13">
+        <v>49</v>
+      </c>
+      <c r="E215" s="14"/>
+      <c r="F215" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" s="13">
+        <v>31.220075147611379</v>
+      </c>
+      <c r="H215" s="13">
+        <v>17.779924852388621</v>
+      </c>
+      <c r="I215" s="13">
+        <v>49</v>
+      </c>
+      <c r="J215" s="15"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="12"/>
+      <c r="B216" s="13">
+        <v>4748</v>
+      </c>
+      <c r="C216" s="13">
+        <v>2704</v>
+      </c>
+      <c r="D216" s="13">
+        <v>7452</v>
+      </c>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14">
+        <v>4748</v>
+      </c>
+      <c r="H216" s="13">
+        <v>2704</v>
+      </c>
+      <c r="I216" s="14">
+        <v>7452</v>
+      </c>
+      <c r="J216" s="15"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="14"/>
+      <c r="J217" s="15"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="12"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="14"/>
+      <c r="J218" s="15"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="14"/>
+      <c r="J219" s="15"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>4724</v>
+      </c>
+      <c r="B220" s="13">
+        <v>4716.7799248523888</v>
+      </c>
+      <c r="C220" s="13">
+        <v>7.2200751476111691</v>
+      </c>
+      <c r="D220" s="13">
+        <v>52.129485137152443</v>
+      </c>
+      <c r="E220" s="14">
+        <v>1.1051922279113717E-2</v>
+      </c>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="15"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="12">
+        <v>24</v>
+      </c>
+      <c r="B221" s="13">
+        <v>31.220075147611379</v>
+      </c>
+      <c r="C221" s="13">
+        <v>-7.2200751476113787</v>
+      </c>
+      <c r="D221" s="13">
+        <v>52.12948513715547</v>
+      </c>
+      <c r="E221" s="14">
+        <v>1.669742461883339</v>
+      </c>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="15"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
+        <v>2679</v>
+      </c>
+      <c r="B222" s="13">
+        <v>2686.2200751476112</v>
+      </c>
+      <c r="C222" s="13">
+        <v>-7.2200751476111691</v>
+      </c>
+      <c r="D222" s="13">
+        <v>52.129485137152443</v>
+      </c>
+      <c r="E222" s="14">
+        <v>1.9406259978266248E-2</v>
+      </c>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
+      <c r="J222" s="15"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>25</v>
+      </c>
+      <c r="B223" s="13">
+        <v>17.779924852388621</v>
+      </c>
+      <c r="C223" s="13">
+        <v>7.2200751476113787</v>
+      </c>
+      <c r="D223" s="13">
+        <v>52.12948513715547</v>
+      </c>
+      <c r="E223" s="14">
+        <v>2.9319294412063952</v>
+      </c>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H223" s="14"/>
+      <c r="I223" s="14"/>
+      <c r="J223" s="15"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="12"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H224" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I224" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J224" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="12"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="14">
+        <v>4.6321300853471143</v>
+      </c>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H225" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I225" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J225" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="12"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="14"/>
+      <c r="J226" s="15"/>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+      <c r="B227" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="24"/>
+      <c r="I227" s="24"/>
+      <c r="J227" s="25"/>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="11"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="12"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="15"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H231" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I231" s="14"/>
+      <c r="J231" s="15"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="42">
+        <v>15520</v>
+      </c>
+      <c r="C232" s="42">
+        <v>10374</v>
+      </c>
+      <c r="D232" s="13">
+        <v>25894</v>
+      </c>
+      <c r="E232" s="14"/>
+      <c r="F232" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G232" s="14">
+        <v>15420.942906059252</v>
+      </c>
+      <c r="H232" s="17">
+        <v>10473.057093940748</v>
+      </c>
+      <c r="I232" s="14">
+        <v>25894</v>
+      </c>
+      <c r="J232" s="15"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="42">
+        <v>481</v>
+      </c>
+      <c r="C233" s="42">
+        <v>493</v>
+      </c>
+      <c r="D233" s="13">
+        <v>974</v>
+      </c>
+      <c r="E233" s="14"/>
+      <c r="F233" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233" s="13">
+        <v>580.05709394074734</v>
+      </c>
+      <c r="H233" s="13">
+        <v>393.94290605925266</v>
+      </c>
+      <c r="I233" s="13">
+        <v>974</v>
+      </c>
+      <c r="J233" s="15"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="12"/>
+      <c r="B234" s="13">
+        <v>16001</v>
+      </c>
+      <c r="C234" s="13">
+        <v>10867</v>
+      </c>
+      <c r="D234" s="13">
+        <v>26868</v>
+      </c>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14">
+        <v>16001</v>
+      </c>
+      <c r="H234" s="13">
+        <v>10867</v>
+      </c>
+      <c r="I234" s="14">
+        <v>26868</v>
+      </c>
+      <c r="J234" s="15"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="12"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="14"/>
+      <c r="J235" s="15"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="15"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="15"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
+        <v>15520</v>
+      </c>
+      <c r="B238" s="13">
+        <v>15420.942906059252</v>
+      </c>
+      <c r="C238" s="13">
+        <v>99.057093940748018</v>
+      </c>
+      <c r="D238" s="13">
+        <v>9812.3078599861783</v>
+      </c>
+      <c r="E238" s="14">
+        <v>0.63629752861160593</v>
+      </c>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="15"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="12">
+        <v>481</v>
+      </c>
+      <c r="B239" s="13">
+        <v>580.05709394074734</v>
+      </c>
+      <c r="C239" s="13">
+        <v>-99.057093940747336</v>
+      </c>
+      <c r="D239" s="13">
+        <v>9812.3078599860419</v>
+      </c>
+      <c r="E239" s="14">
+        <v>16.916106987544861</v>
+      </c>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="15"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
+        <v>10374</v>
+      </c>
+      <c r="B240" s="13">
+        <v>10473.057093940748</v>
+      </c>
+      <c r="C240" s="13">
+        <v>-99.057093940748018</v>
+      </c>
+      <c r="D240" s="13">
+        <v>9812.3078599861783</v>
+      </c>
+      <c r="E240" s="14">
+        <v>0.93690961215738522</v>
+      </c>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="15"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="12">
+        <v>493</v>
+      </c>
+      <c r="B241" s="13">
+        <v>393.94290605925266</v>
+      </c>
+      <c r="C241" s="13">
+        <v>99.057093940747336</v>
+      </c>
+      <c r="D241" s="13">
+        <v>9812.3078599860419</v>
+      </c>
+      <c r="E241" s="14">
+        <v>24.907944042302869</v>
+      </c>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="15"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="12"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H242" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I242" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J242" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E243" s="14">
+        <v>43.397258170616723</v>
+      </c>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H243" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I243" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J243" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="15"/>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="25"/>
+    </row>
+    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="9"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="11"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="12"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="15"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D249" s="13"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H249" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I249" s="14"/>
+      <c r="J249" s="15"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" s="42">
+        <v>2995</v>
+      </c>
+      <c r="C250" s="42">
+        <v>2971</v>
+      </c>
+      <c r="D250" s="13">
+        <v>5966</v>
+      </c>
+      <c r="E250" s="14"/>
+      <c r="F250" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G250" s="14">
+        <v>2955.0042071197413</v>
+      </c>
+      <c r="H250" s="17">
+        <v>3010.9957928802587</v>
+      </c>
+      <c r="I250" s="14">
+        <v>5966</v>
+      </c>
+      <c r="J250" s="15"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" s="42">
+        <v>66</v>
+      </c>
+      <c r="C251" s="42">
+        <v>148</v>
+      </c>
+      <c r="D251" s="13">
+        <v>214</v>
+      </c>
+      <c r="E251" s="14"/>
+      <c r="F251" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G251" s="13">
+        <v>105.9957928802589</v>
+      </c>
+      <c r="H251" s="13">
+        <v>108.0042071197411</v>
+      </c>
+      <c r="I251" s="13">
+        <v>214</v>
+      </c>
+      <c r="J251" s="15"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="12"/>
+      <c r="B252" s="13">
+        <v>3061</v>
+      </c>
+      <c r="C252" s="13">
+        <v>3119</v>
+      </c>
+      <c r="D252" s="13">
+        <v>6180</v>
+      </c>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14">
+        <v>3061</v>
+      </c>
+      <c r="H252" s="13">
+        <v>3119</v>
+      </c>
+      <c r="I252" s="14">
+        <v>6180</v>
+      </c>
+      <c r="J252" s="15"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="12"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="15"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="12"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="15"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="15"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="12">
+        <v>2995</v>
+      </c>
+      <c r="B256" s="13">
+        <v>2955.0042071197413</v>
+      </c>
+      <c r="C256" s="13">
+        <v>39.995792880258705</v>
+      </c>
+      <c r="D256" s="13">
+        <v>1599.6634481205529</v>
+      </c>
+      <c r="E256" s="14">
+        <v>0.54134049767724479</v>
+      </c>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="15"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="12">
+        <v>66</v>
+      </c>
+      <c r="B257" s="13">
+        <v>105.9957928802589</v>
+      </c>
+      <c r="C257" s="13">
+        <v>-39.995792880258904</v>
+      </c>
+      <c r="D257" s="13">
+        <v>1599.6634481205688</v>
+      </c>
+      <c r="E257" s="14">
+        <v>15.091763594123712</v>
+      </c>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="15"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="12">
+        <v>2971</v>
+      </c>
+      <c r="B258" s="13">
+        <v>3010.9957928802587</v>
+      </c>
+      <c r="C258" s="13">
+        <v>-39.995792880258705</v>
+      </c>
+      <c r="D258" s="13">
+        <v>1599.6634481205529</v>
+      </c>
+      <c r="E258" s="14">
+        <v>0.53127389015391036</v>
+      </c>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="15"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="12">
+        <v>148</v>
+      </c>
+      <c r="B259" s="13">
+        <v>108.0042071197411</v>
+      </c>
+      <c r="C259" s="13">
+        <v>39.995792880258904</v>
+      </c>
+      <c r="D259" s="13">
+        <v>1599.6634481205688</v>
+      </c>
+      <c r="E259" s="14">
+        <v>14.811121629244209</v>
+      </c>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="15"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H260" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I260" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J260" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E261" s="14">
+        <v>30.975499611199076</v>
+      </c>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H261" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I261" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J261" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="15"/>
+    </row>
+    <row r="263" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="22"/>
+      <c r="B263" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="24"/>
+      <c r="J263" s="25"/>
+    </row>
+    <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="11"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="12"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
+      <c r="J266" s="15"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D267" s="13"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G267" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H267" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I267" s="14"/>
+      <c r="J267" s="15"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" s="42">
+        <v>173837</v>
+      </c>
+      <c r="C268" s="42">
+        <v>69740</v>
+      </c>
+      <c r="D268" s="13">
+        <v>243577</v>
+      </c>
+      <c r="E268" s="14"/>
+      <c r="F268" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G268" s="14">
+        <v>173079.42673381444</v>
+      </c>
+      <c r="H268" s="17">
+        <v>70497.573266185544</v>
+      </c>
+      <c r="I268" s="14">
+        <v>243577</v>
+      </c>
+      <c r="J268" s="15"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B269" s="42">
+        <v>3098</v>
+      </c>
+      <c r="C269" s="42">
+        <v>2328</v>
+      </c>
+      <c r="D269" s="13">
+        <v>5426</v>
+      </c>
+      <c r="E269" s="14"/>
+      <c r="F269" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G269" s="13">
+        <v>3855.5732661855482</v>
+      </c>
+      <c r="H269" s="13">
+        <v>1570.4267338144521</v>
+      </c>
+      <c r="I269" s="13">
+        <v>5426</v>
+      </c>
+      <c r="J269" s="15"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="12"/>
+      <c r="B270" s="13">
+        <v>176935</v>
+      </c>
+      <c r="C270" s="13">
+        <v>72068</v>
+      </c>
+      <c r="D270" s="13">
+        <v>249003</v>
+      </c>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14">
+        <v>176935</v>
+      </c>
+      <c r="H270" s="13">
+        <v>72068</v>
+      </c>
+      <c r="I270" s="14">
+        <v>249003</v>
+      </c>
+      <c r="J270" s="15"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="12"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="15"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="12"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="15"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E273" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="15"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="12">
+        <v>173837</v>
+      </c>
+      <c r="B274" s="13">
+        <v>173079.42673381444</v>
+      </c>
+      <c r="C274" s="13">
+        <v>757.57326618555817</v>
+      </c>
+      <c r="D274" s="13">
+        <v>573917.2536390546</v>
+      </c>
+      <c r="E274" s="14">
+        <v>3.3159183876989853</v>
+      </c>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="15"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="12">
+        <v>3098</v>
+      </c>
+      <c r="B275" s="13">
+        <v>3855.5732661855482</v>
+      </c>
+      <c r="C275" s="13">
+        <v>-757.57326618554816</v>
+      </c>
+      <c r="D275" s="13">
+        <v>573917.25363903947</v>
+      </c>
+      <c r="E275" s="14">
+        <v>148.85393533367753</v>
+      </c>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="15"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="12">
+        <v>69740</v>
+      </c>
+      <c r="B276" s="13">
+        <v>70497.573266185544</v>
+      </c>
+      <c r="C276" s="13">
+        <v>-757.57326618554362</v>
+      </c>
+      <c r="D276" s="13">
+        <v>573917.25363903248</v>
+      </c>
+      <c r="E276" s="14">
+        <v>8.1409504901967207</v>
+      </c>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="15"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="12">
+        <v>2328</v>
+      </c>
+      <c r="B277" s="13">
+        <v>1570.4267338144521</v>
+      </c>
+      <c r="C277" s="13">
+        <v>757.57326618554794</v>
+      </c>
+      <c r="D277" s="13">
+        <v>573917.25363903912</v>
+      </c>
+      <c r="E277" s="14">
+        <v>365.45305889249346</v>
+      </c>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="15"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="12"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H278" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I278" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J278" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="12"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E279" s="14">
+        <v>525.76386310406667</v>
+      </c>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H279" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I279" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J279" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="12"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="15"/>
+    </row>
+    <row r="281" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="22"/>
+      <c r="B281" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="24"/>
+      <c r="F281" s="24"/>
+      <c r="G281" s="24"/>
+      <c r="H281" s="24"/>
+      <c r="I281" s="24"/>
+      <c r="J281" s="25"/>
+    </row>
+    <row r="282" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="11"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="12"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
+      <c r="J284" s="15"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D285" s="13"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G285" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H285" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I285" s="14"/>
+      <c r="J285" s="15"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286" s="42">
+        <v>14153</v>
+      </c>
+      <c r="C286" s="42">
+        <v>162070</v>
+      </c>
+      <c r="D286" s="13">
+        <v>176223</v>
+      </c>
+      <c r="E286" s="14"/>
+      <c r="F286" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" s="14">
+        <v>14263.973336507559</v>
+      </c>
+      <c r="H286" s="17">
+        <v>161959.02666349243</v>
+      </c>
+      <c r="I286" s="14">
+        <v>176223</v>
+      </c>
+      <c r="J286" s="15"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B287" s="42">
+        <v>127</v>
+      </c>
+      <c r="C287" s="42">
+        <v>71</v>
+      </c>
+      <c r="D287" s="13">
+        <v>198</v>
+      </c>
+      <c r="E287" s="14"/>
+      <c r="F287" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G287" s="13">
+        <v>16.026663492441376</v>
+      </c>
+      <c r="H287" s="13">
+        <v>181.97333650755863</v>
+      </c>
+      <c r="I287" s="13">
+        <v>198</v>
+      </c>
+      <c r="J287" s="15"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="12"/>
+      <c r="B288" s="13">
+        <v>14280</v>
+      </c>
+      <c r="C288" s="13">
+        <v>162141</v>
+      </c>
+      <c r="D288" s="13">
+        <v>176421</v>
+      </c>
+      <c r="E288" s="14"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="14">
+        <v>14280</v>
+      </c>
+      <c r="H288" s="13">
+        <v>162141</v>
+      </c>
+      <c r="I288" s="14">
+        <v>176421</v>
+      </c>
+      <c r="J288" s="15"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="12"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="15"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="12"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="14"/>
+      <c r="I290" s="14"/>
+      <c r="J290" s="15"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C291" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E291" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F291" s="14"/>
+      <c r="G291" s="14"/>
+      <c r="H291" s="14"/>
+      <c r="I291" s="14"/>
+      <c r="J291" s="15"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="12">
+        <v>14153</v>
+      </c>
+      <c r="B292" s="13">
+        <v>14263.973336507559</v>
+      </c>
+      <c r="C292" s="13">
+        <v>-110.973336507559</v>
+      </c>
+      <c r="D292" s="13">
+        <v>12315.081415619927</v>
+      </c>
+      <c r="E292" s="14">
+        <v>0.8633696323660679</v>
+      </c>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
+      <c r="J292" s="15"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="12">
+        <v>127</v>
+      </c>
+      <c r="B293" s="13">
+        <v>16.026663492441376</v>
+      </c>
+      <c r="C293" s="13">
+        <v>110.97333650755863</v>
+      </c>
+      <c r="D293" s="13">
+        <v>12315.081415619845</v>
+      </c>
+      <c r="E293" s="14">
+        <v>768.41205416386151</v>
+      </c>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="15"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="12">
+        <v>162070</v>
+      </c>
+      <c r="B294" s="13">
+        <v>161959.02666349243</v>
+      </c>
+      <c r="C294" s="13">
+        <v>110.97333650756627</v>
+      </c>
+      <c r="D294" s="13">
+        <v>12315.081415621542</v>
+      </c>
+      <c r="E294" s="14">
+        <v>7.6038252818158694E-2</v>
+      </c>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
+      <c r="J294" s="15"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="12">
+        <v>71</v>
+      </c>
+      <c r="B295" s="13">
+        <v>181.97333650755863</v>
+      </c>
+      <c r="C295" s="13">
+        <v>-110.97333650755863</v>
+      </c>
+      <c r="D295" s="13">
+        <v>12315.081415619845</v>
+      </c>
+      <c r="E295" s="14">
+        <v>67.675197102891573</v>
+      </c>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="15"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="12"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="H296" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="I296" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="J296" s="21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="12"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E297" s="14">
+        <v>837.02665915193734</v>
+      </c>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="H297" s="14">
+        <v>3.84</v>
+      </c>
+      <c r="I297" s="14">
+        <v>6.63</v>
+      </c>
+      <c r="J297" s="15">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="12"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="15"/>
+    </row>
+    <row r="299" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="22"/>
+      <c r="B299" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="24"/>
+      <c r="F299" s="24"/>
+      <c r="G299" s="24"/>
+      <c r="H299" s="24"/>
+      <c r="I299" s="24"/>
+      <c r="J299" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,8 +9346,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12097,12 +19217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G1" sqref="G1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12112,27 +19232,51 @@
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -12147,9 +19291,17 @@
       <c r="E2" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
@@ -12164,9 +19316,33 @@
       <c r="E3" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>42092</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>32991</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9055.1666666666661</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45.833333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -12181,9 +19357,33 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>23594.726411624146</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5">
+        <v>18266.824227229125</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5324.0224239011268</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5">
+        <v>23.645690661697472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
@@ -12198,9 +19398,33 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8073.5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7232</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1239</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -12215,9 +19439,33 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
@@ -12232,9 +19480,33 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>81734.529871240637</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5">
+        <v>63278.135308981873</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>18442.954677665515</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="5">
+        <v>81.911075212233925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -12249,9 +19521,33 @@
       <c r="E8" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6680533373.272727</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4004122408.181818</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5">
+        <v>340142577.24242425</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6709.4242424242429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
@@ -12266,9 +19562,33 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.0014932718233585</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4.2262554684753617</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3.3138080414241005</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.9201811349265814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -12283,9 +19603,33 @@
       <c r="E10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.2318305975887482</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.2607406286791587</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.139439131881371</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2.4376754152117504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -12300,9 +19644,33 @@
       <c r="E11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5">
+        <v>251386</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5">
+        <v>196980</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="5">
+        <v>54133</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -12317,9 +19685,33 @@
       <c r="E12" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1166</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5">
+        <v>966</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5">
+        <v>198</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1">
@@ -12333,6 +19725,82 @@
       </c>
       <c r="E13" s="1">
         <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5">
+        <v>252552</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5">
+        <v>197946</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5">
+        <v>54331</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="5">
+        <v>505104</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5">
+        <v>395892</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="5">
+        <v>108662</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="6">
+        <v>12</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -12344,12 +19812,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12357,9 +19825,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>334+81</f>
         <v>415</v>
@@ -12367,16 +19838,29 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2">
+        <f>A1</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>128+36</f>
         <v>164</v>
@@ -12384,151 +19868,234 @@
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="0">A2</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>487</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>463</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="I5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="C5" s="40"/>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>144</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="I6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="C6" s="40"/>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="H6">
+        <f>A11</f>
+        <v>612</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <f>191+79+33+27+29+92+73+3+227</f>
         <v>754</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="I7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="40"/>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H7">
+        <f>A12</f>
+        <v>261</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3514</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="I8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="40"/>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="H8">
+        <f>A13</f>
+        <v>961</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>855</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="I9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="40"/>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>3514</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="C10" s="40"/>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <f>463+149</f>
         <v>612</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <f>144+117</f>
         <v>261</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="C12" s="40"/>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <f>A15</f>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
         <f>754+207</f>
         <v>961</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1">
+        <f>A16</f>
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <v>1321</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>527</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4370</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -12538,106 +20105,286 @@
       <c r="D18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="31">
         <f>(531*0.915)+(305*0.866)+(226*0.982)+(90*0.978)</f>
         <v>1059.9470000000001</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <f>(531*0.085)+(305*0.134)+(226*0.018)+(90*0.022)</f>
         <v>92.053000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="31">
         <f>(623*0.859)+(434*0.839)+(189*0.905)+(173*0.873)</f>
         <v>1221.357</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="31">
         <f>(623*0.141)+(434*0.161)+(189*0.095)+(173*0.127)</f>
         <v>197.643</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3084.0590000000002</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="5">
+        <v>907.69100000000014</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="31">
         <f>(204*0.657)+(122*0.598)+(82*0.744)+(100*0.81)</f>
         <v>348.99200000000002</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="31">
         <f>(204*0.343)+(122*0.402)+(82*0.256)+(100*0.19)</f>
         <v>159.00800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1491.5468606054108</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="5">
+        <v>452.31152731165275</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <f>(808*0.739)+(515*0.645)+(293*0.904)+(226*0.942)</f>
         <v>1407.0510000000002</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="31">
         <f>(808*0.261)+(515*0.355)+(293*0.096)+(226*0.058)</f>
         <v>434.94899999999996</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1314.2040000000002</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5">
+        <v>316.29599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="31">
         <f>(3870*0.744)+(2745*0.707)+(1125*0.835)+(753*0.884)</f>
         <v>6425.0219999999999</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <f>(3870*0.256)+(2745*0.293)+(1125*0.165)+(753*0.116)</f>
         <v>2067.9780000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="31">
         <f>(812*0.713)+(524*0.662)+(288*0.806)+(480*0.806)</f>
         <v>1544.8519999999999</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="31">
         <f>(812*0.287)+(524*0.338)+(288*0.194)+(480*0.194)</f>
         <v>559.14800000000002</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4218.7315983663684</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1279.3301926836559</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="31">
         <f>(213*0.728)+(172*0.709)+(41*0.805)+(23*0.826)</f>
         <v>329.01499999999999</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <f>(213*0.272)+(172*0.291)+(41*0.195)+(23*0.174)</f>
         <v>119.985</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="33">
+      <c r="F25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
+        <v>17797696.299054857</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1636685.7419120001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="31">
         <f>SUM(C19:C25)</f>
         <v>12336.236000000001</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="31">
         <f>SUM(D19:D25)</f>
         <v>3630.7640000000006</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3.3352311995375192</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2.5564500561839782</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.9402189045349441</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.8009087846641036</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12007.221000000001</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3538.7110000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="5">
+        <v>329.01499999999999</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="5">
+        <v>92.053000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12336.236000000001</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="5">
+        <v>3630.7640000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="5">
+        <v>24672.472000000002</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="5">
+        <v>7261.5280000000012</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -12647,15 +20394,16 @@
     <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16804,8 +24552,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17214,12 +24962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J33"/>
+      <selection activeCell="L17" sqref="L17:U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17249,45 +24997,45 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -17325,7 +25073,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -17363,7 +25111,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -17401,7 +25149,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -17439,7 +25187,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
@@ -17477,7 +25225,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -17515,7 +25263,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -17553,7 +25301,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -17591,7 +25339,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1">
@@ -17617,7 +25365,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
@@ -17643,7 +25391,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
@@ -17669,7 +25417,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
@@ -19550,12 +27298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19587,45 +27335,45 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -19667,7 +27415,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -19708,7 +27456,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -19749,7 +27497,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -19790,7 +27538,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
@@ -19831,7 +27579,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -19872,7 +27620,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -19913,7 +27661,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
@@ -19954,7 +27702,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1">
@@ -19995,7 +27743,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
@@ -20027,7 +27775,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
@@ -20059,7 +27807,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
